--- a/TESTCASE/Testcase_web_FreshFood.xlsx
+++ b/TESTCASE/Testcase_web_FreshFood.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\test\TESTCASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Test\TESTCASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,11 +13,12 @@
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Thêm mới sản phẩm" sheetId="2" r:id="rId2"/>
-    <sheet name="Đăng nhập" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="Thêm mới sản phẩm" sheetId="2" r:id="rId3"/>
+    <sheet name="Đăng nhập" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Thêm mới sản phẩm'!$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thêm mới sản phẩm'!$F$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="818">
   <si>
     <t>20/4</t>
   </si>
@@ -3054,10 +3055,43 @@
     <t>Chú Ý</t>
   </si>
   <si>
-    <t>Phạm vi test: (Functional testing)
-- Kiểm thử giao diện
-- Kiểm thử tích hợp
-- Kiểm thử hệ thống</t>
+    <t>Phạm vi test</t>
+  </si>
+  <si>
+    <t>Các chức năng test</t>
+  </si>
+  <si>
+    <t>Kiểm thử tích hợp</t>
+  </si>
+  <si>
+    <t>Thêm sản phẩm</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Nội dung chi tiết</t>
+  </si>
+  <si>
+    <t>Thông tin giá, khuyến mãi</t>
+  </si>
+  <si>
+    <t>Các chức năng không được test</t>
+  </si>
+  <si>
+    <t>Hình ảnh và video</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cấu hình SEO</t>
+  </si>
+  <si>
+    <t>Loại sản phẩm</t>
+  </si>
+  <si>
+    <t>Thuộc tính sản phẩm</t>
   </si>
 </sst>
 </file>
@@ -3146,7 +3180,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3249,8 +3283,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -3517,10 +3557,53 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3530,10 +3613,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3542,23 +3625,12 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -3568,125 +3640,13 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3791,17 +3751,6 @@
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -3874,6 +3823,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -3883,7 +3841,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3925,55 +3883,46 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="49" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3995,7 +3944,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4004,7 +3953,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4019,7 +3968,7 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4031,7 +3980,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4040,7 +3989,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4055,13 +4004,13 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="40" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="47" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4088,67 +4037,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="43" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="45" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="48" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="42" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4175,39 +4139,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4232,7 +4163,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4241,12 +4172,24 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4256,20 +4199,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4554,56 +4532,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2:Q2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="13.8984375" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16.09765625" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
     <col min="7" max="7" width="13.59765625" customWidth="1"/>
     <col min="8" max="8" width="17.8984375" customWidth="1"/>
-    <col min="11" max="11" width="10.59765625" customWidth="1"/>
+    <col min="11" max="11" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:18" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A1" s="99" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="109" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="105" t="s">
         <v>531</v>
       </c>
-      <c r="D1" s="110"/>
-      <c r="E1" s="111" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="78" t="s">
         <v>532</v>
       </c>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113" t="s">
+      <c r="F1" s="79"/>
+      <c r="G1" s="80" t="s">
         <v>533</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="95" t="s">
         <v>536</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="97" t="s">
         <v>537</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="J1" s="99" t="s">
         <v>538</v>
       </c>
-      <c r="K1" s="104"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="81"/>
+      <c r="K1" s="100"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="81.75" customHeight="1" thickBot="1">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="104"/>
       <c r="C2" s="15" t="s">
         <v>534</v>
       </c>
@@ -4616,405 +4597,405 @@
       <c r="F2" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="106"/>
-      <c r="N2" s="142" t="s">
-        <v>805</v>
-      </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="98"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="102"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+      <c r="R2" s="72"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A3" s="115" t="s">
+      <c r="A3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="116"/>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="22">
         <v>1</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A4" s="119" t="s">
+      <c r="A4" s="75" t="s">
         <v>541</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="22">
         <v>2</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="16"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="25" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="21" t="s">
         <v>542</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="20"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="16"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A6" s="120"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="21" t="s">
         <v>539</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="20"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A7" s="121"/>
-      <c r="B7" s="25" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="21" t="s">
         <v>540</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="20"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="20"/>
+      <c r="A10" s="127"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" thickBot="1">
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1">
+      <c r="C12" s="140" t="s">
+        <v>805</v>
+      </c>
+      <c r="D12" s="141" t="s">
+        <v>806</v>
+      </c>
+      <c r="E12" s="142"/>
+      <c r="F12" s="143" t="s">
+        <v>813</v>
+      </c>
+      <c r="G12" s="144"/>
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1">
+      <c r="C13" s="137" t="s">
+        <v>807</v>
+      </c>
+      <c r="D13" s="145" t="s">
+        <v>808</v>
+      </c>
+      <c r="E13" s="146" t="s">
+        <v>809</v>
+      </c>
+      <c r="F13" s="147" t="s">
+        <v>808</v>
+      </c>
+      <c r="G13" s="148"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="95"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="20"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="132" t="s">
+        <v>810</v>
+      </c>
+      <c r="E14" s="135"/>
+      <c r="F14" s="127" t="s">
+        <v>540</v>
+      </c>
+      <c r="G14" s="128"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="95"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="138"/>
+      <c r="D15" s="132" t="s">
+        <v>811</v>
+      </c>
+      <c r="E15" s="134"/>
+      <c r="F15" s="127" t="s">
+        <v>816</v>
+      </c>
+      <c r="G15" s="128"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="95"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="95"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="23"/>
-    </row>
-    <row r="19" spans="1:11" ht="15" thickBot="1">
-      <c r="A19" s="93"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1"/>
-    <row r="25" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B25" s="84" t="s">
+      <c r="C16" s="138"/>
+      <c r="D16" s="132" t="s">
+        <v>814</v>
+      </c>
+      <c r="E16" s="134"/>
+      <c r="F16" s="127" t="s">
+        <v>817</v>
+      </c>
+      <c r="G16" s="128"/>
+      <c r="I16" s="29"/>
+    </row>
+    <row r="17" spans="3:16">
+      <c r="C17" s="138"/>
+      <c r="D17" s="132" t="s">
+        <v>812</v>
+      </c>
+      <c r="E17" s="134"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+    </row>
+    <row r="18" spans="3:16" ht="15" thickBot="1">
+      <c r="C18" s="139"/>
+      <c r="D18" s="133" t="s">
+        <v>815</v>
+      </c>
+      <c r="E18" s="136"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="127"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+    </row>
+    <row r="19" spans="3:16">
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="127"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+    </row>
+    <row r="21" spans="3:16" ht="15" customHeight="1"/>
+    <row r="25" spans="3:16" ht="15" thickBot="1"/>
+    <row r="26" spans="3:16" ht="16.5" thickBot="1">
+      <c r="C26" s="90" t="s">
         <v>608</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="D26" s="92" t="s">
         <v>609</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="84" t="s">
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="90" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B26" s="85"/>
-      <c r="C26" s="40" t="s">
-        <v>547</v>
-      </c>
-      <c r="D26" s="40" t="s">
+    <row r="27" spans="3:16" ht="16.5" thickBot="1">
+      <c r="C27" s="91"/>
+      <c r="D27" s="31" t="s">
+        <v>547</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="E26" s="40" t="s">
+      <c r="F27" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="F26" s="89"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75">
-      <c r="B27" s="41" t="s">
+      <c r="G27" s="91"/>
+    </row>
+    <row r="28" spans="3:16" ht="15.75">
+      <c r="C28" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="41">
+      <c r="D28" s="32">
         <v>15</v>
       </c>
-      <c r="D27" s="41">
+      <c r="E28" s="32">
         <v>2</v>
       </c>
-      <c r="E27" s="41">
+      <c r="F28" s="32">
         <v>0</v>
       </c>
-      <c r="F27" s="42">
+      <c r="G28" s="33">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B28" s="41" t="s">
+    <row r="29" spans="3:16" ht="16.5" thickBot="1">
+      <c r="C29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="41">
+      <c r="D29" s="32">
         <v>131</v>
       </c>
-      <c r="D28" s="41">
+      <c r="E29" s="32">
         <v>46</v>
       </c>
-      <c r="E28" s="41">
+      <c r="F29" s="32">
         <v>14</v>
       </c>
-      <c r="F28" s="43">
+      <c r="G29" s="34">
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickBot="1">
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="44" t="s">
+    <row r="30" spans="3:16" ht="16.5" thickBot="1">
+      <c r="C30" s="84"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="35" t="s">
         <v>611</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+  <mergeCells count="30">
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="E14:E18"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:K2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5023,108 +5004,219 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="14.09765625" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1">
+      <c r="B2" s="140" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="141" t="s">
+        <v>806</v>
+      </c>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143" t="s">
+        <v>813</v>
+      </c>
+      <c r="F2" s="144"/>
+    </row>
+    <row r="3" spans="2:6" ht="15" thickBot="1">
+      <c r="B3" s="137" t="s">
+        <v>807</v>
+      </c>
+      <c r="C3" s="145" t="s">
+        <v>808</v>
+      </c>
+      <c r="D3" s="146" t="s">
+        <v>809</v>
+      </c>
+      <c r="E3" s="147" t="s">
+        <v>808</v>
+      </c>
+      <c r="F3" s="148"/>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="138"/>
+      <c r="C4" s="132" t="s">
+        <v>810</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="127" t="s">
+        <v>540</v>
+      </c>
+      <c r="F4" s="128"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="138"/>
+      <c r="C5" s="132" t="s">
+        <v>811</v>
+      </c>
+      <c r="D5" s="129"/>
+      <c r="E5" s="127" t="s">
+        <v>816</v>
+      </c>
+      <c r="F5" s="128"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="138"/>
+      <c r="C6" s="132" t="s">
+        <v>814</v>
+      </c>
+      <c r="D6" s="129"/>
+      <c r="E6" s="127" t="s">
+        <v>817</v>
+      </c>
+      <c r="F6" s="128"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="138"/>
+      <c r="C7" s="132" t="s">
+        <v>812</v>
+      </c>
+      <c r="D7" s="129"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="129"/>
+    </row>
+    <row r="8" spans="2:6" ht="15" thickBot="1">
+      <c r="B8" s="139"/>
+      <c r="C8" s="133" t="s">
+        <v>815</v>
+      </c>
+      <c r="D8" s="131"/>
+      <c r="E8" s="130"/>
+      <c r="F8" s="131"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G451"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A190" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="39" customWidth="1"/>
     <col min="2" max="2" width="36.59765625" customWidth="1"/>
     <col min="3" max="3" width="20.8984375" customWidth="1"/>
     <col min="4" max="4" width="25.8984375" customWidth="1"/>
     <col min="5" max="5" width="22.3984375" customWidth="1"/>
     <col min="6" max="6" width="39.8984375" customWidth="1"/>
-    <col min="7" max="7" width="20.09765625" style="34" customWidth="1"/>
+    <col min="7" max="7" width="20.09765625" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="113" t="s">
         <v>612</v>
       </c>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="113" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="132" t="s">
+      <c r="F1" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="128" t="s">
+      <c r="G1" s="113" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="128"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="113"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="128"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="107" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="123"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="123"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
+      <c r="F4" s="108"/>
+      <c r="G4" s="109"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="125"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="127"/>
-    </row>
-    <row r="6" spans="1:7" s="78" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50" t="s">
+      <c r="A5" s="110"/>
+      <c r="B5" s="111"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="112"/>
+    </row>
+    <row r="6" spans="1:7" s="69" customFormat="1" ht="27" customHeight="1">
+      <c r="A6" s="40"/>
+      <c r="B6" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="1:7" s="77" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" s="68" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A7" s="43"/>
+      <c r="B7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="56"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="47"/>
     </row>
     <row r="8" spans="1:7" ht="257.25" customHeight="1">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="37" t="s">
         <v>613</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -5137,7 +5229,7 @@
         <v>548</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="24" t="s">
         <v>546</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -5145,7 +5237,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="189" customHeight="1">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="37" t="s">
         <v>614</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -5158,24 +5250,24 @@
         <v>13</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G9" s="64"/>
-    </row>
-    <row r="10" spans="1:7" s="77" customFormat="1" ht="15.75">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53" t="s">
+      <c r="F9" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G9" s="55"/>
+    </row>
+    <row r="10" spans="1:7" s="68" customFormat="1" ht="15.75">
+      <c r="A10" s="43"/>
+      <c r="B10" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="47"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="37" t="s">
         <v>615</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -5186,13 +5278,13 @@
         <v>54</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G11" s="64"/>
+      <c r="F11" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G11" s="55"/>
     </row>
     <row r="12" spans="1:7" ht="63">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="37" t="s">
         <v>616</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -5205,13 +5297,13 @@
         <v>57</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G12" s="64"/>
+      <c r="F12" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G12" s="55"/>
     </row>
     <row r="13" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="37" t="s">
         <v>617</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -5224,45 +5316,45 @@
         <v>60</v>
       </c>
       <c r="E13" s="9"/>
-      <c r="F13" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G13" s="64"/>
+      <c r="F13" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:7" ht="63">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="58" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="68" t="s">
+      <c r="D14" s="59" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="36" t="s">
+      <c r="F14" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="60" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75">
-      <c r="A15" s="61"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="52"/>
+      <c r="B15" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="76"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="67"/>
     </row>
     <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="37" t="s">
         <v>619</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5273,13 +5365,13 @@
         <v>75</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G16" s="64"/>
+      <c r="F16" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" ht="47.25">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="37" t="s">
         <v>620</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -5292,13 +5384,13 @@
         <v>77</v>
       </c>
       <c r="E17" s="9"/>
-      <c r="F17" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G17" s="64"/>
+      <c r="F17" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" ht="63">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="37" t="s">
         <v>621</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -5311,43 +5403,43 @@
         <v>80</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G18" s="64"/>
+      <c r="F18" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7" ht="63">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="37" t="s">
         <v>622</v>
       </c>
-      <c r="B19" s="67" t="s">
+      <c r="B19" s="58" t="s">
         <v>81</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="68" t="s">
+      <c r="D19" s="59" t="s">
         <v>73</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G19" s="64"/>
+      <c r="F19" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" ht="15.75">
-      <c r="A20" s="61"/>
-      <c r="B20" s="62" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
     </row>
     <row r="21" spans="1:7" ht="15.75">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="37" t="s">
         <v>623</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -5358,13 +5450,13 @@
         <v>65</v>
       </c>
       <c r="E21" s="9"/>
-      <c r="F21" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G21" s="64"/>
+      <c r="F21" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G21" s="55"/>
     </row>
     <row r="22" spans="1:7" ht="63">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="37" t="s">
         <v>624</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -5377,13 +5469,13 @@
         <v>70</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G22" s="64"/>
+      <c r="F22" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G22" s="55"/>
     </row>
     <row r="23" spans="1:7" ht="63">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="37" t="s">
         <v>625</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -5396,43 +5488,43 @@
         <v>69</v>
       </c>
       <c r="E23" s="9"/>
-      <c r="F23" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G23" s="64"/>
+      <c r="F23" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G23" s="55"/>
     </row>
     <row r="24" spans="1:7" ht="63">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="37" t="s">
         <v>626</v>
       </c>
-      <c r="B24" s="67" t="s">
+      <c r="B24" s="58" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="59" t="s">
         <v>73</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G24" s="64"/>
+      <c r="F24" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G24" s="55"/>
     </row>
     <row r="25" spans="1:7" ht="15.75">
-      <c r="A25" s="61"/>
-      <c r="B25" s="62" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A26" s="46" t="s">
+      <c r="A26" s="37" t="s">
         <v>627</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -5445,13 +5537,13 @@
         <v>86</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G26" s="64"/>
+      <c r="F26" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G26" s="55"/>
     </row>
     <row r="27" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A27" s="46" t="s">
+      <c r="A27" s="37" t="s">
         <v>628</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -5464,13 +5556,13 @@
         <v>86</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="36" t="s">
+      <c r="F27" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G27" s="69"/>
+      <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="37" t="s">
         <v>629</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -5485,13 +5577,13 @@
       <c r="E28" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="F28" s="36" t="s">
+      <c r="F28" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G28" s="69"/>
+      <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7" ht="63">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="37" t="s">
         <v>630</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5506,13 +5598,13 @@
       <c r="E29" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="F29" s="36" t="s">
+      <c r="F29" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G29" s="69"/>
+      <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="37" t="s">
         <v>631</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -5527,13 +5619,13 @@
       <c r="E30" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="F30" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="G30" s="69"/>
+      <c r="F30" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="37" t="s">
         <v>632</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -5548,24 +5640,24 @@
       <c r="E31" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G31" s="64"/>
+      <c r="F31" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G31" s="55"/>
     </row>
     <row r="32" spans="1:7" ht="15.75">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62" t="s">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="37" t="s">
         <v>633</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -5580,13 +5672,13 @@
       <c r="E33" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="F33" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="G33" s="64"/>
+      <c r="F33" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="G33" s="55"/>
     </row>
     <row r="34" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="37" t="s">
         <v>634</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5601,13 +5693,13 @@
       <c r="E34" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="F34" s="36" t="s">
+      <c r="F34" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G34" s="64"/>
+      <c r="G34" s="55"/>
     </row>
     <row r="35" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="37" t="s">
         <v>635</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -5620,13 +5712,13 @@
         <v>109</v>
       </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="36" t="s">
+      <c r="F35" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G35" s="64"/>
+      <c r="G35" s="55"/>
     </row>
     <row r="36" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A36" s="46" t="s">
+      <c r="A36" s="37" t="s">
         <v>636</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -5641,13 +5733,13 @@
       <c r="E36" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G36" s="64"/>
+      <c r="G36" s="55"/>
     </row>
     <row r="37" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="37" t="s">
         <v>637</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5662,13 +5754,13 @@
       <c r="E37" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="F37" s="36" t="s">
+      <c r="F37" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G37" s="64"/>
+      <c r="G37" s="55"/>
     </row>
     <row r="38" spans="1:7" ht="102" customHeight="1">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="37" t="s">
         <v>638</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -5683,13 +5775,13 @@
       <c r="E38" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="F38" s="36" t="s">
+      <c r="F38" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G38" s="64"/>
+      <c r="G38" s="55"/>
     </row>
     <row r="39" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="37" t="s">
         <v>639</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -5704,13 +5796,13 @@
       <c r="E39" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G39" s="64"/>
+      <c r="F39" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G39" s="55"/>
     </row>
     <row r="40" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="37" t="s">
         <v>640</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5725,24 +5817,24 @@
       <c r="E40" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="F40" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G40" s="65"/>
+      <c r="F40" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G40" s="56"/>
     </row>
     <row r="41" spans="1:7" ht="15.75">
-      <c r="A41" s="61"/>
-      <c r="B41" s="62" t="s">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" ht="63" customHeight="1">
-      <c r="A42" s="46" t="s">
+      <c r="A42" s="37" t="s">
         <v>642</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5755,13 +5847,13 @@
         <v>73</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G42" s="64"/>
+      <c r="F42" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G42" s="55"/>
     </row>
     <row r="43" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="37" t="s">
         <v>643</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -5774,13 +5866,13 @@
         <v>73</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G43" s="64"/>
+      <c r="F43" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="63">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="37" t="s">
         <v>644</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -5795,13 +5887,13 @@
       <c r="E44" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G44" s="64"/>
+      <c r="G44" s="55"/>
     </row>
     <row r="45" spans="1:7" ht="93" customHeight="1">
-      <c r="A45" s="46" t="s">
+      <c r="A45" s="37" t="s">
         <v>645</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -5816,13 +5908,13 @@
       <c r="E45" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G45" s="64"/>
+      <c r="F45" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G45" s="55"/>
     </row>
     <row r="46" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A46" s="46" t="s">
+      <c r="A46" s="37" t="s">
         <v>646</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -5835,13 +5927,13 @@
         <v>135</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G46" s="64"/>
+      <c r="F46" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G46" s="55"/>
     </row>
     <row r="47" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A47" s="46" t="s">
+      <c r="A47" s="37" t="s">
         <v>647</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -5856,24 +5948,24 @@
       <c r="E47" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="F47" s="36" t="s">
+      <c r="F47" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G47" s="64"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="15.75">
-      <c r="A48" s="61"/>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="52"/>
+      <c r="B48" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
     </row>
     <row r="49" spans="1:7" ht="63" customHeight="1">
-      <c r="A49" s="46" t="s">
+      <c r="A49" s="37" t="s">
         <v>641</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5886,13 +5978,13 @@
         <v>140</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="36" t="s">
+      <c r="F49" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G49" s="64"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A50" s="46" t="s">
+      <c r="A50" s="37" t="s">
         <v>648</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -5905,13 +5997,13 @@
         <v>140</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="36" t="s">
+      <c r="F50" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G50" s="64"/>
+      <c r="G50" s="55"/>
     </row>
     <row r="51" spans="1:7" ht="63" customHeight="1">
-      <c r="A51" s="46" t="s">
+      <c r="A51" s="37" t="s">
         <v>649</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -5926,13 +6018,13 @@
       <c r="E51" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="F51" s="36" t="s">
+      <c r="F51" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G51" s="64"/>
+      <c r="G51" s="55"/>
     </row>
     <row r="52" spans="1:7" ht="63" customHeight="1">
-      <c r="A52" s="46" t="s">
+      <c r="A52" s="37" t="s">
         <v>650</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -5947,13 +6039,13 @@
       <c r="E52" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="F52" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G52" s="64"/>
+      <c r="F52" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G52" s="55"/>
     </row>
     <row r="53" spans="1:7" ht="63" customHeight="1">
-      <c r="A53" s="46" t="s">
+      <c r="A53" s="37" t="s">
         <v>651</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -5968,13 +6060,13 @@
       <c r="E53" s="8" t="s">
         <v>575</v>
       </c>
-      <c r="F53" s="36" t="s">
+      <c r="F53" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G53" s="64"/>
+      <c r="G53" s="55"/>
     </row>
     <row r="54" spans="1:7" ht="63" customHeight="1">
-      <c r="A54" s="46" t="s">
+      <c r="A54" s="37" t="s">
         <v>652</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -5987,15 +6079,15 @@
         <v>150</v>
       </c>
       <c r="E54" s="9"/>
-      <c r="F54" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G54" s="69" t="s">
+      <c r="F54" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G54" s="60" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A55" s="46" t="s">
+      <c r="A55" s="37" t="s">
         <v>653</v>
       </c>
       <c r="B55" s="3" t="s">
@@ -6008,15 +6100,15 @@
         <v>188</v>
       </c>
       <c r="E55" s="9"/>
-      <c r="F55" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G55" s="69" t="s">
+      <c r="F55" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G55" s="60" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="63" customHeight="1">
-      <c r="A56" s="46" t="s">
+      <c r="A56" s="37" t="s">
         <v>654</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -6029,15 +6121,15 @@
         <v>189</v>
       </c>
       <c r="E56" s="9"/>
-      <c r="F56" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G56" s="69" t="s">
+      <c r="F56" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G56" s="60" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A57" s="46" t="s">
+      <c r="A57" s="37" t="s">
         <v>655</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -6050,15 +6142,15 @@
         <v>157</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G57" s="69" t="s">
+      <c r="F57" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G57" s="60" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A58" s="46" t="s">
+      <c r="A58" s="37" t="s">
         <v>656</v>
       </c>
       <c r="B58" s="3" t="s">
@@ -6073,13 +6165,13 @@
       <c r="E58" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="F58" s="36" t="s">
+      <c r="F58" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G58" s="64"/>
+      <c r="G58" s="55"/>
     </row>
     <row r="59" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="37" t="s">
         <v>657</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -6092,15 +6184,15 @@
         <v>191</v>
       </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G59" s="69" t="s">
+      <c r="F59" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G59" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A60" s="46" t="s">
+      <c r="A60" s="37" t="s">
         <v>658</v>
       </c>
       <c r="B60" s="3" t="s">
@@ -6113,24 +6205,24 @@
         <v>164</v>
       </c>
       <c r="E60" s="9"/>
-      <c r="F60" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G60" s="64"/>
+      <c r="F60" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G60" s="55"/>
     </row>
     <row r="61" spans="1:7" ht="15.75">
-      <c r="A61" s="61"/>
-      <c r="B61" s="62" t="s">
+      <c r="A61" s="52"/>
+      <c r="B61" s="53" t="s">
         <v>165</v>
       </c>
-      <c r="C61" s="62"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="64"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="55"/>
     </row>
     <row r="62" spans="1:7" ht="63" customHeight="1">
-      <c r="A62" s="46" t="s">
+      <c r="A62" s="37" t="s">
         <v>659</v>
       </c>
       <c r="B62" s="3" t="s">
@@ -6143,13 +6235,13 @@
         <v>73</v>
       </c>
       <c r="E62" s="9"/>
-      <c r="F62" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G62" s="64"/>
+      <c r="F62" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G62" s="55"/>
     </row>
     <row r="63" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A63" s="46" t="s">
+      <c r="A63" s="37" t="s">
         <v>660</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -6162,15 +6254,15 @@
         <v>73</v>
       </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="36" t="s">
+      <c r="F63" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G63" s="69" t="s">
+      <c r="G63" s="60" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="63" customHeight="1">
-      <c r="A64" s="46" t="s">
+      <c r="A64" s="37" t="s">
         <v>661</v>
       </c>
       <c r="B64" s="3" t="s">
@@ -6185,13 +6277,13 @@
       <c r="E64" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="F64" s="36" t="s">
+      <c r="F64" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G64" s="64"/>
+      <c r="G64" s="55"/>
     </row>
     <row r="65" spans="1:7" ht="63" customHeight="1">
-      <c r="A65" s="46" t="s">
+      <c r="A65" s="37" t="s">
         <v>662</v>
       </c>
       <c r="B65" s="3" t="s">
@@ -6206,13 +6298,13 @@
       <c r="E65" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="F65" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G65" s="64"/>
+      <c r="F65" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G65" s="55"/>
     </row>
     <row r="66" spans="1:7" ht="63" customHeight="1">
-      <c r="A66" s="46" t="s">
+      <c r="A66" s="37" t="s">
         <v>663</v>
       </c>
       <c r="B66" s="3" t="s">
@@ -6225,15 +6317,15 @@
         <v>183</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G66" s="69" t="s">
+      <c r="F66" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G66" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A67" s="46" t="s">
+      <c r="A67" s="37" t="s">
         <v>664</v>
       </c>
       <c r="B67" s="3" t="s">
@@ -6246,15 +6338,15 @@
         <v>184</v>
       </c>
       <c r="E67" s="9"/>
-      <c r="F67" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G67" s="69" t="s">
+      <c r="F67" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G67" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="63" customHeight="1">
-      <c r="A68" s="46" t="s">
+      <c r="A68" s="37" t="s">
         <v>665</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -6267,15 +6359,15 @@
         <v>185</v>
       </c>
       <c r="E68" s="9"/>
-      <c r="F68" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G68" s="69" t="s">
+      <c r="F68" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G68" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="37" t="s">
         <v>666</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -6288,15 +6380,15 @@
         <v>186</v>
       </c>
       <c r="E69" s="9"/>
-      <c r="F69" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G69" s="69" t="s">
+      <c r="F69" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G69" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A70" s="46" t="s">
+      <c r="A70" s="37" t="s">
         <v>667</v>
       </c>
       <c r="B70" s="3" t="s">
@@ -6309,15 +6401,15 @@
         <v>187</v>
       </c>
       <c r="E70" s="9"/>
-      <c r="F70" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G70" s="69" t="s">
+      <c r="F70" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G70" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A71" s="46" t="s">
+      <c r="A71" s="37" t="s">
         <v>668</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -6330,24 +6422,24 @@
         <v>164</v>
       </c>
       <c r="E71" s="9"/>
-      <c r="F71" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G71" s="69"/>
+      <c r="F71" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G71" s="60"/>
     </row>
     <row r="72" spans="1:7" ht="15.75">
-      <c r="A72" s="61"/>
-      <c r="B72" s="62" t="s">
+      <c r="A72" s="52"/>
+      <c r="B72" s="53" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+      <c r="G72" s="53"/>
     </row>
     <row r="73" spans="1:7" ht="31.5">
-      <c r="A73" s="46" t="s">
+      <c r="A73" s="37" t="s">
         <v>669</v>
       </c>
       <c r="B73" s="3" t="s">
@@ -6360,13 +6452,13 @@
         <v>194</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G73" s="64"/>
+      <c r="F73" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" s="55"/>
     </row>
     <row r="74" spans="1:7" ht="63" customHeight="1">
-      <c r="A74" s="46" t="s">
+      <c r="A74" s="37" t="s">
         <v>670</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -6379,13 +6471,13 @@
         <v>203</v>
       </c>
       <c r="E74" s="9"/>
-      <c r="F74" s="36" t="s">
+      <c r="F74" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G74" s="64"/>
+      <c r="G74" s="55"/>
     </row>
     <row r="75" spans="1:7" ht="63" customHeight="1">
-      <c r="A75" s="46" t="s">
+      <c r="A75" s="37" t="s">
         <v>671</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -6398,13 +6490,13 @@
         <v>197</v>
       </c>
       <c r="E75" s="9"/>
-      <c r="F75" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="G75" s="64"/>
+      <c r="F75" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="G75" s="55"/>
     </row>
     <row r="76" spans="1:7" ht="63" customHeight="1">
-      <c r="A76" s="46" t="s">
+      <c r="A76" s="37" t="s">
         <v>672</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -6417,45 +6509,45 @@
         <v>200</v>
       </c>
       <c r="E76" s="9"/>
-      <c r="F76" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="G76" s="64"/>
+      <c r="F76" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="G76" s="55"/>
     </row>
     <row r="77" spans="1:7" ht="15.75">
-      <c r="A77" s="61"/>
-      <c r="B77" s="62" t="s">
+      <c r="A77" s="52"/>
+      <c r="B77" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="62"/>
-      <c r="F77" s="62"/>
-      <c r="G77" s="62"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="53"/>
     </row>
     <row r="78" spans="1:7" s="11" customFormat="1" ht="31.5">
-      <c r="A78" s="47" t="s">
+      <c r="A78" s="38" t="s">
         <v>673</v>
       </c>
       <c r="B78" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C78" s="70" t="s">
+      <c r="C78" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="D78" s="70" t="s">
+      <c r="D78" s="61" t="s">
         <v>216</v>
       </c>
-      <c r="E78" s="70" t="s">
+      <c r="E78" s="61" t="s">
         <v>215</v>
       </c>
-      <c r="F78" s="71" t="s">
-        <v>547</v>
-      </c>
-      <c r="G78" s="72"/>
+      <c r="F78" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="G78" s="63"/>
     </row>
     <row r="79" spans="1:7" s="11" customFormat="1" ht="63">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="38" t="s">
         <v>674</v>
       </c>
       <c r="B79" s="12" t="s">
@@ -6468,13 +6560,13 @@
         <v>217</v>
       </c>
       <c r="E79" s="13"/>
-      <c r="F79" s="73" t="s">
+      <c r="F79" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="G79" s="72"/>
+      <c r="G79" s="63"/>
     </row>
     <row r="80" spans="1:7" s="11" customFormat="1" ht="63">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="38" t="s">
         <v>675</v>
       </c>
       <c r="B80" s="12" t="s">
@@ -6487,13 +6579,13 @@
         <v>209</v>
       </c>
       <c r="E80" s="13"/>
-      <c r="F80" s="71" t="s">
-        <v>547</v>
-      </c>
-      <c r="G80" s="72"/>
+      <c r="F80" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="G80" s="63"/>
     </row>
     <row r="81" spans="1:7" s="11" customFormat="1" ht="94.5">
-      <c r="A81" s="47" t="s">
+      <c r="A81" s="38" t="s">
         <v>676</v>
       </c>
       <c r="B81" s="12" t="s">
@@ -6506,13 +6598,13 @@
         <v>219</v>
       </c>
       <c r="E81" s="13"/>
-      <c r="F81" s="71" t="s">
-        <v>547</v>
-      </c>
-      <c r="G81" s="72"/>
+      <c r="F81" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="G81" s="63"/>
     </row>
     <row r="82" spans="1:7" s="11" customFormat="1" ht="94.5">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="38" t="s">
         <v>677</v>
       </c>
       <c r="B82" s="12" t="s">
@@ -6525,13 +6617,13 @@
         <v>224</v>
       </c>
       <c r="E82" s="13"/>
-      <c r="F82" s="71" t="s">
-        <v>547</v>
-      </c>
-      <c r="G82" s="72"/>
+      <c r="F82" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="G82" s="63"/>
     </row>
     <row r="83" spans="1:7" s="11" customFormat="1" ht="94.5">
-      <c r="A83" s="47" t="s">
+      <c r="A83" s="38" t="s">
         <v>678</v>
       </c>
       <c r="B83" s="12" t="s">
@@ -6544,13 +6636,13 @@
         <v>229</v>
       </c>
       <c r="E83" s="13"/>
-      <c r="F83" s="73" t="s">
+      <c r="F83" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="G83" s="72"/>
+      <c r="G83" s="63"/>
     </row>
     <row r="84" spans="1:7" s="11" customFormat="1" ht="94.5">
-      <c r="A84" s="47" t="s">
+      <c r="A84" s="38" t="s">
         <v>679</v>
       </c>
       <c r="B84" s="12" t="s">
@@ -6563,13 +6655,13 @@
         <v>228</v>
       </c>
       <c r="E84" s="13"/>
-      <c r="F84" s="71" t="s">
-        <v>547</v>
-      </c>
-      <c r="G84" s="74"/>
+      <c r="F84" s="62" t="s">
+        <v>547</v>
+      </c>
+      <c r="G84" s="65"/>
     </row>
     <row r="85" spans="1:7" s="11" customFormat="1" ht="94.5">
-      <c r="A85" s="47" t="s">
+      <c r="A85" s="38" t="s">
         <v>680</v>
       </c>
       <c r="B85" s="12" t="s">
@@ -6582,24 +6674,24 @@
         <v>227</v>
       </c>
       <c r="E85" s="13"/>
-      <c r="F85" s="73" t="s">
+      <c r="F85" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="G85" s="72"/>
+      <c r="G85" s="63"/>
     </row>
     <row r="86" spans="1:7" ht="15.75">
-      <c r="A86" s="61"/>
-      <c r="B86" s="62" t="s">
+      <c r="A86" s="52"/>
+      <c r="B86" s="53" t="s">
         <v>289</v>
       </c>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A87" s="46" t="s">
+      <c r="A87" s="37" t="s">
         <v>681</v>
       </c>
       <c r="B87" s="3" t="s">
@@ -6612,13 +6704,13 @@
         <v>73</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G87" s="64"/>
+      <c r="F87" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G87" s="55"/>
     </row>
     <row r="88" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A88" s="46" t="s">
+      <c r="A88" s="37" t="s">
         <v>682</v>
       </c>
       <c r="B88" s="3" t="s">
@@ -6631,13 +6723,13 @@
         <v>73</v>
       </c>
       <c r="E88" s="9"/>
-      <c r="F88" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G88" s="64"/>
+      <c r="F88" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G88" s="55"/>
     </row>
     <row r="89" spans="1:7" ht="237.75" customHeight="1">
-      <c r="A89" s="46" t="s">
+      <c r="A89" s="37" t="s">
         <v>683</v>
       </c>
       <c r="B89" s="3" t="s">
@@ -6652,13 +6744,13 @@
       <c r="E89" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="F89" s="36" t="s">
+      <c r="F89" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G89" s="64"/>
+      <c r="G89" s="55"/>
     </row>
     <row r="90" spans="1:7" ht="158.25" customHeight="1">
-      <c r="A90" s="46" t="s">
+      <c r="A90" s="37" t="s">
         <v>684</v>
       </c>
       <c r="B90" s="3" t="s">
@@ -6673,24 +6765,24 @@
       <c r="E90" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="F90" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G90" s="64"/>
+      <c r="F90" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G90" s="55"/>
     </row>
     <row r="91" spans="1:7" ht="15.75">
-      <c r="A91" s="61"/>
-      <c r="B91" s="62" t="s">
+      <c r="A91" s="52"/>
+      <c r="B91" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+      <c r="G91" s="53"/>
     </row>
     <row r="92" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A92" s="46" t="s">
+      <c r="A92" s="37" t="s">
         <v>685</v>
       </c>
       <c r="B92" s="3" t="s">
@@ -6703,13 +6795,13 @@
         <v>73</v>
       </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G92" s="64"/>
+      <c r="F92" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G92" s="55"/>
     </row>
     <row r="93" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A93" s="46" t="s">
+      <c r="A93" s="37" t="s">
         <v>686</v>
       </c>
       <c r="B93" s="3" t="s">
@@ -6722,13 +6814,13 @@
         <v>73</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G93" s="64"/>
+      <c r="F93" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G93" s="55"/>
     </row>
     <row r="94" spans="1:7" ht="151.5" customHeight="1">
-      <c r="A94" s="46" t="s">
+      <c r="A94" s="37" t="s">
         <v>687</v>
       </c>
       <c r="B94" s="3" t="s">
@@ -6743,13 +6835,13 @@
       <c r="E94" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="F94" s="36" t="s">
+      <c r="F94" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G94" s="64"/>
+      <c r="G94" s="55"/>
     </row>
     <row r="95" spans="1:7" ht="106.5" customHeight="1">
-      <c r="A95" s="46" t="s">
+      <c r="A95" s="37" t="s">
         <v>688</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -6764,24 +6856,24 @@
       <c r="E95" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="F95" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G95" s="64"/>
+      <c r="F95" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G95" s="55"/>
     </row>
     <row r="96" spans="1:7" ht="15.75">
-      <c r="A96" s="61"/>
-      <c r="B96" s="62" t="s">
+      <c r="A96" s="52"/>
+      <c r="B96" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="C96" s="62"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
     </row>
     <row r="97" spans="1:7" ht="63" customHeight="1">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="37" t="s">
         <v>689</v>
       </c>
       <c r="B97" s="3" t="s">
@@ -6794,13 +6886,13 @@
         <v>233</v>
       </c>
       <c r="E97" s="9"/>
-      <c r="F97" s="36" t="s">
+      <c r="F97" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G97" s="64"/>
+      <c r="G97" s="55"/>
     </row>
     <row r="98" spans="1:7" ht="63" customHeight="1">
-      <c r="A98" s="46" t="s">
+      <c r="A98" s="37" t="s">
         <v>690</v>
       </c>
       <c r="B98" s="3" t="s">
@@ -6813,24 +6905,24 @@
         <v>238</v>
       </c>
       <c r="E98" s="9"/>
-      <c r="F98" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G98" s="64"/>
+      <c r="F98" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G98" s="55"/>
     </row>
     <row r="99" spans="1:7" ht="15.75">
-      <c r="A99" s="61"/>
-      <c r="B99" s="62" t="s">
+      <c r="A99" s="52"/>
+      <c r="B99" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="62"/>
-      <c r="F99" s="62"/>
-      <c r="G99" s="62"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
     </row>
     <row r="100" spans="1:7" ht="31.5">
-      <c r="A100" s="46" t="s">
+      <c r="A100" s="37" t="s">
         <v>691</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -6843,35 +6935,35 @@
         <v>242</v>
       </c>
       <c r="E100" s="9"/>
-      <c r="F100" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G100" s="64"/>
-    </row>
-    <row r="101" spans="1:7" s="45" customFormat="1" ht="27" customHeight="1">
-      <c r="A101" s="57"/>
-      <c r="B101" s="58" t="s">
+      <c r="F100" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G100" s="55"/>
+    </row>
+    <row r="101" spans="1:7" s="36" customFormat="1" ht="27" customHeight="1">
+      <c r="A101" s="48"/>
+      <c r="B101" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="C101" s="58"/>
-      <c r="D101" s="58"/>
-      <c r="E101" s="58"/>
-      <c r="F101" s="59"/>
-      <c r="G101" s="60"/>
+      <c r="C101" s="49"/>
+      <c r="D101" s="49"/>
+      <c r="E101" s="49"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="51"/>
     </row>
     <row r="102" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A102" s="61"/>
-      <c r="B102" s="62" t="s">
+      <c r="A102" s="52"/>
+      <c r="B102" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C102" s="62"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="62"/>
-      <c r="F102" s="63"/>
-      <c r="G102" s="62"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="53"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="53"/>
     </row>
     <row r="103" spans="1:7" ht="90" customHeight="1">
-      <c r="A103" s="46" t="s">
+      <c r="A103" s="37" t="s">
         <v>692</v>
       </c>
       <c r="B103" s="3" t="s">
@@ -6884,13 +6976,13 @@
         <v>587</v>
       </c>
       <c r="E103" s="5"/>
-      <c r="F103" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G103" s="64"/>
+      <c r="F103" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G103" s="55"/>
     </row>
     <row r="104" spans="1:7" ht="189" customHeight="1">
-      <c r="A104" s="46" t="s">
+      <c r="A104" s="37" t="s">
         <v>693</v>
       </c>
       <c r="B104" s="3" t="s">
@@ -6903,24 +6995,24 @@
         <v>13</v>
       </c>
       <c r="E104" s="5"/>
-      <c r="F104" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G104" s="64"/>
+      <c r="F104" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G104" s="55"/>
     </row>
     <row r="105" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A105" s="61"/>
-      <c r="B105" s="62" t="s">
+      <c r="A105" s="52"/>
+      <c r="B105" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="62"/>
-      <c r="F105" s="63"/>
-      <c r="G105" s="62"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="54"/>
+      <c r="G105" s="53"/>
     </row>
     <row r="106" spans="1:7" ht="31.5">
-      <c r="A106" s="46" t="s">
+      <c r="A106" s="37" t="s">
         <v>694</v>
       </c>
       <c r="B106" s="3" t="s">
@@ -6931,13 +7023,13 @@
         <v>245</v>
       </c>
       <c r="E106" s="5"/>
-      <c r="F106" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G106" s="64"/>
+      <c r="F106" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G106" s="55"/>
     </row>
     <row r="107" spans="1:7" ht="31.5">
-      <c r="A107" s="46" t="s">
+      <c r="A107" s="37" t="s">
         <v>695</v>
       </c>
       <c r="B107" s="3" t="s">
@@ -6950,13 +7042,13 @@
         <v>248</v>
       </c>
       <c r="E107" s="5"/>
-      <c r="F107" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G107" s="64"/>
+      <c r="F107" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G107" s="55"/>
     </row>
     <row r="108" spans="1:7" ht="63">
-      <c r="A108" s="46" t="s">
+      <c r="A108" s="37" t="s">
         <v>696</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -6969,13 +7061,13 @@
         <v>254</v>
       </c>
       <c r="E108" s="5"/>
-      <c r="F108" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G108" s="64"/>
+      <c r="F108" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G108" s="55"/>
     </row>
     <row r="109" spans="1:7" ht="63" customHeight="1">
-      <c r="A109" s="46" t="s">
+      <c r="A109" s="37" t="s">
         <v>697</v>
       </c>
       <c r="B109" s="3" t="s">
@@ -6988,24 +7080,24 @@
         <v>253</v>
       </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G109" s="64"/>
+      <c r="F109" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G109" s="55"/>
     </row>
     <row r="110" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A110" s="61"/>
-      <c r="B110" s="62" t="s">
+      <c r="A110" s="52"/>
+      <c r="B110" s="53" t="s">
         <v>255</v>
       </c>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="63"/>
-      <c r="G110" s="62"/>
+      <c r="C110" s="53"/>
+      <c r="D110" s="53"/>
+      <c r="E110" s="53"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="53"/>
     </row>
     <row r="111" spans="1:7" ht="31.5">
-      <c r="A111" s="46" t="s">
+      <c r="A111" s="37" t="s">
         <v>698</v>
       </c>
       <c r="B111" s="3" t="s">
@@ -7016,13 +7108,13 @@
         <v>256</v>
       </c>
       <c r="E111" s="5"/>
-      <c r="F111" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G111" s="64"/>
+      <c r="F111" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G111" s="55"/>
     </row>
     <row r="112" spans="1:7" ht="78.75">
-      <c r="A112" s="46" t="s">
+      <c r="A112" s="37" t="s">
         <v>699</v>
       </c>
       <c r="B112" s="3" t="s">
@@ -7035,13 +7127,13 @@
         <v>261</v>
       </c>
       <c r="E112" s="5"/>
-      <c r="F112" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G112" s="64"/>
+      <c r="F112" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G112" s="55"/>
     </row>
     <row r="113" spans="1:7" ht="78.75">
-      <c r="A113" s="46" t="s">
+      <c r="A113" s="37" t="s">
         <v>700</v>
       </c>
       <c r="B113" s="3" t="s">
@@ -7054,13 +7146,13 @@
         <v>261</v>
       </c>
       <c r="E113" s="5"/>
-      <c r="F113" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G113" s="64"/>
+      <c r="F113" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G113" s="55"/>
     </row>
     <row r="114" spans="1:7" ht="78.75">
-      <c r="A114" s="46" t="s">
+      <c r="A114" s="37" t="s">
         <v>701</v>
       </c>
       <c r="B114" s="3" t="s">
@@ -7073,13 +7165,13 @@
         <v>269</v>
       </c>
       <c r="E114" s="5"/>
-      <c r="F114" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G114" s="64"/>
+      <c r="F114" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G114" s="55"/>
     </row>
     <row r="115" spans="1:7" ht="63">
-      <c r="A115" s="46" t="s">
+      <c r="A115" s="37" t="s">
         <v>702</v>
       </c>
       <c r="B115" s="3" t="s">
@@ -7094,13 +7186,13 @@
       <c r="E115" s="4" t="s">
         <v>588</v>
       </c>
-      <c r="F115" s="36" t="s">
+      <c r="F115" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G115" s="64"/>
+      <c r="G115" s="55"/>
     </row>
     <row r="116" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="37" t="s">
         <v>703</v>
       </c>
       <c r="B116" s="3" t="s">
@@ -7113,13 +7205,13 @@
         <v>260</v>
       </c>
       <c r="E116" s="5"/>
-      <c r="F116" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G116" s="64"/>
+      <c r="F116" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G116" s="55"/>
     </row>
     <row r="117" spans="1:7" ht="78.75" customHeight="1">
-      <c r="A117" s="46" t="s">
+      <c r="A117" s="37" t="s">
         <v>704</v>
       </c>
       <c r="B117" s="3" t="s">
@@ -7132,24 +7224,24 @@
         <v>73</v>
       </c>
       <c r="E117" s="9"/>
-      <c r="F117" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G117" s="64"/>
+      <c r="F117" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G117" s="55"/>
     </row>
     <row r="118" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A118" s="61"/>
-      <c r="B118" s="62" t="s">
+      <c r="A118" s="52"/>
+      <c r="B118" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="C118" s="62"/>
-      <c r="D118" s="62"/>
-      <c r="E118" s="62"/>
-      <c r="F118" s="63"/>
-      <c r="G118" s="64"/>
+      <c r="C118" s="53"/>
+      <c r="D118" s="53"/>
+      <c r="E118" s="53"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="55"/>
     </row>
     <row r="119" spans="1:7" ht="31.5">
-      <c r="A119" s="46" t="s">
+      <c r="A119" s="37" t="s">
         <v>705</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -7160,13 +7252,13 @@
         <v>271</v>
       </c>
       <c r="E119" s="5"/>
-      <c r="F119" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G119" s="64"/>
+      <c r="F119" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G119" s="55"/>
     </row>
     <row r="120" spans="1:7" ht="78.75">
-      <c r="A120" s="46" t="s">
+      <c r="A120" s="37" t="s">
         <v>706</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -7179,15 +7271,15 @@
         <v>274</v>
       </c>
       <c r="E120" s="5"/>
-      <c r="F120" s="36" t="s">
+      <c r="F120" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G120" s="69" t="s">
+      <c r="G120" s="60" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="78.75">
-      <c r="A121" s="46" t="s">
+      <c r="A121" s="37" t="s">
         <v>707</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -7200,15 +7292,15 @@
         <v>277</v>
       </c>
       <c r="E121" s="5"/>
-      <c r="F121" s="36" t="s">
+      <c r="F121" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G121" s="69" t="s">
+      <c r="G121" s="60" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="63">
-      <c r="A122" s="46" t="s">
+      <c r="A122" s="37" t="s">
         <v>708</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -7221,15 +7313,15 @@
         <v>281</v>
       </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G122" s="69" t="s">
+      <c r="F122" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G122" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="78.75">
-      <c r="A123" s="46" t="s">
+      <c r="A123" s="37" t="s">
         <v>709</v>
       </c>
       <c r="B123" s="3" t="s">
@@ -7242,15 +7334,15 @@
         <v>282</v>
       </c>
       <c r="E123" s="9"/>
-      <c r="F123" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G123" s="69" t="s">
+      <c r="F123" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G123" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="63">
-      <c r="A124" s="46" t="s">
+      <c r="A124" s="37" t="s">
         <v>710</v>
       </c>
       <c r="B124" s="3" t="s">
@@ -7263,15 +7355,15 @@
         <v>281</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G124" s="69" t="s">
+      <c r="F124" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G124" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="63">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="37" t="s">
         <v>711</v>
       </c>
       <c r="B125" s="3" t="s">
@@ -7284,15 +7376,15 @@
         <v>282</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G125" s="69" t="s">
+      <c r="F125" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G125" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="78.75">
-      <c r="A126" s="46" t="s">
+      <c r="A126" s="37" t="s">
         <v>712</v>
       </c>
       <c r="B126" s="3" t="s">
@@ -7305,15 +7397,15 @@
         <v>282</v>
       </c>
       <c r="E126" s="9"/>
-      <c r="F126" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G126" s="69" t="s">
+      <c r="F126" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G126" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="78.75">
-      <c r="A127" s="46" t="s">
+      <c r="A127" s="37" t="s">
         <v>713</v>
       </c>
       <c r="B127" s="3" t="s">
@@ -7326,26 +7418,26 @@
         <v>164</v>
       </c>
       <c r="E127" s="9"/>
-      <c r="F127" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G127" s="69" t="s">
+      <c r="F127" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G127" s="60" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A128" s="61"/>
-      <c r="B128" s="62" t="s">
+      <c r="A128" s="52"/>
+      <c r="B128" s="53" t="s">
         <v>301</v>
       </c>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
-      <c r="E128" s="62"/>
-      <c r="F128" s="63"/>
-      <c r="G128" s="62"/>
+      <c r="C128" s="53"/>
+      <c r="D128" s="53"/>
+      <c r="E128" s="53"/>
+      <c r="F128" s="54"/>
+      <c r="G128" s="53"/>
     </row>
     <row r="129" spans="1:7" ht="78.75">
-      <c r="A129" s="46" t="s">
+      <c r="A129" s="37" t="s">
         <v>714</v>
       </c>
       <c r="B129" s="3" t="s">
@@ -7358,13 +7450,13 @@
         <v>304</v>
       </c>
       <c r="E129" s="5"/>
-      <c r="F129" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G129" s="64"/>
+      <c r="F129" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G129" s="55"/>
     </row>
     <row r="130" spans="1:7" ht="78.75">
-      <c r="A130" s="46" t="s">
+      <c r="A130" s="37" t="s">
         <v>715</v>
       </c>
       <c r="B130" s="3" t="s">
@@ -7377,24 +7469,24 @@
         <v>304</v>
       </c>
       <c r="E130" s="5"/>
-      <c r="F130" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G130" s="64"/>
+      <c r="F130" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G130" s="55"/>
     </row>
     <row r="131" spans="1:7" ht="15.75">
-      <c r="A131" s="61"/>
-      <c r="B131" s="62" t="s">
+      <c r="A131" s="52"/>
+      <c r="B131" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="C131" s="62"/>
-      <c r="D131" s="62"/>
-      <c r="E131" s="62"/>
-      <c r="F131" s="62"/>
-      <c r="G131" s="62"/>
+      <c r="C131" s="53"/>
+      <c r="D131" s="53"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="53"/>
+      <c r="G131" s="53"/>
     </row>
     <row r="132" spans="1:7" ht="31.5">
-      <c r="A132" s="46" t="s">
+      <c r="A132" s="37" t="s">
         <v>716</v>
       </c>
       <c r="B132" s="3" t="s">
@@ -7407,35 +7499,35 @@
         <v>242</v>
       </c>
       <c r="E132" s="9"/>
-      <c r="F132" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G132" s="64"/>
-    </row>
-    <row r="133" spans="1:7" s="45" customFormat="1" ht="27" customHeight="1">
-      <c r="A133" s="57"/>
-      <c r="B133" s="58" t="s">
+      <c r="F132" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G132" s="55"/>
+    </row>
+    <row r="133" spans="1:7" s="36" customFormat="1" ht="27" customHeight="1">
+      <c r="A133" s="48"/>
+      <c r="B133" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="C133" s="58"/>
-      <c r="D133" s="58"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="59"/>
-      <c r="G133" s="60"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="50"/>
+      <c r="G133" s="51"/>
     </row>
     <row r="134" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A134" s="61"/>
-      <c r="B134" s="62" t="s">
+      <c r="A134" s="52"/>
+      <c r="B134" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="63"/>
-      <c r="G134" s="62"/>
+      <c r="C134" s="53"/>
+      <c r="D134" s="53"/>
+      <c r="E134" s="53"/>
+      <c r="F134" s="54"/>
+      <c r="G134" s="53"/>
     </row>
     <row r="135" spans="1:7" ht="78.75">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="37" t="s">
         <v>717</v>
       </c>
       <c r="B135" s="3" t="s">
@@ -7448,13 +7540,13 @@
         <v>591</v>
       </c>
       <c r="E135" s="5"/>
-      <c r="F135" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G135" s="64"/>
+      <c r="F135" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G135" s="55"/>
     </row>
     <row r="136" spans="1:7" ht="189">
-      <c r="A136" s="46" t="s">
+      <c r="A136" s="37" t="s">
         <v>718</v>
       </c>
       <c r="B136" s="3" t="s">
@@ -7467,24 +7559,24 @@
         <v>13</v>
       </c>
       <c r="E136" s="5"/>
-      <c r="F136" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G136" s="64"/>
+      <c r="F136" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G136" s="55"/>
     </row>
     <row r="137" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A137" s="61"/>
-      <c r="B137" s="62" t="s">
+      <c r="A137" s="52"/>
+      <c r="B137" s="53" t="s">
         <v>310</v>
       </c>
-      <c r="C137" s="62"/>
-      <c r="D137" s="62"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="63"/>
-      <c r="G137" s="63"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="53"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="54"/>
+      <c r="G137" s="54"/>
     </row>
     <row r="138" spans="1:7" ht="15.75">
-      <c r="A138" s="46" t="s">
+      <c r="A138" s="37" t="s">
         <v>719</v>
       </c>
       <c r="B138" s="3" t="s">
@@ -7495,13 +7587,13 @@
         <v>311</v>
       </c>
       <c r="E138" s="9"/>
-      <c r="F138" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G138" s="64"/>
+      <c r="F138" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G138" s="55"/>
     </row>
     <row r="139" spans="1:7" ht="31.5">
-      <c r="A139" s="46" t="s">
+      <c r="A139" s="37" t="s">
         <v>720</v>
       </c>
       <c r="B139" s="3" t="s">
@@ -7514,13 +7606,13 @@
         <v>313</v>
       </c>
       <c r="E139" s="9"/>
-      <c r="F139" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G139" s="64"/>
+      <c r="F139" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G139" s="55"/>
     </row>
     <row r="140" spans="1:7" ht="63">
-      <c r="A140" s="46" t="s">
+      <c r="A140" s="37" t="s">
         <v>721</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -7533,13 +7625,13 @@
         <v>316</v>
       </c>
       <c r="E140" s="9"/>
-      <c r="F140" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G140" s="64"/>
+      <c r="F140" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G140" s="55"/>
     </row>
     <row r="141" spans="1:7" ht="63">
-      <c r="A141" s="46" t="s">
+      <c r="A141" s="37" t="s">
         <v>722</v>
       </c>
       <c r="B141" s="12" t="s">
@@ -7548,28 +7640,28 @@
       <c r="C141" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="D141" s="75" t="s">
+      <c r="D141" s="66" t="s">
         <v>319</v>
       </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G141" s="64"/>
+      <c r="F141" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G141" s="55"/>
     </row>
     <row r="142" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A142" s="61"/>
-      <c r="B142" s="62" t="s">
+      <c r="A142" s="52"/>
+      <c r="B142" s="53" t="s">
         <v>320</v>
       </c>
-      <c r="C142" s="62"/>
-      <c r="D142" s="62"/>
-      <c r="E142" s="62"/>
-      <c r="F142" s="63"/>
-      <c r="G142" s="63"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="53"/>
+      <c r="E142" s="53"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="54"/>
     </row>
     <row r="143" spans="1:7" ht="78.75">
-      <c r="A143" s="46" t="s">
+      <c r="A143" s="37" t="s">
         <v>723</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -7582,13 +7674,13 @@
         <v>322</v>
       </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G143" s="64"/>
+      <c r="F143" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G143" s="55"/>
     </row>
     <row r="144" spans="1:7" ht="94.5">
-      <c r="A144" s="46" t="s">
+      <c r="A144" s="37" t="s">
         <v>724</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -7601,13 +7693,13 @@
         <v>332</v>
       </c>
       <c r="E144" s="9"/>
-      <c r="F144" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G144" s="64"/>
+      <c r="F144" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G144" s="55"/>
     </row>
     <row r="145" spans="1:7" ht="94.5">
-      <c r="A145" s="46" t="s">
+      <c r="A145" s="37" t="s">
         <v>725</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -7620,13 +7712,13 @@
         <v>338</v>
       </c>
       <c r="E145" s="9"/>
-      <c r="F145" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G145" s="64"/>
+      <c r="F145" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G145" s="55"/>
     </row>
     <row r="146" spans="1:7" ht="94.5">
-      <c r="A146" s="46" t="s">
+      <c r="A146" s="37" t="s">
         <v>726</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -7639,13 +7731,13 @@
         <v>333</v>
       </c>
       <c r="E146" s="9"/>
-      <c r="F146" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G146" s="64"/>
+      <c r="F146" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G146" s="55"/>
     </row>
     <row r="147" spans="1:7" ht="94.5">
-      <c r="A147" s="46" t="s">
+      <c r="A147" s="37" t="s">
         <v>727</v>
       </c>
       <c r="B147" s="3" t="s">
@@ -7658,24 +7750,24 @@
         <v>331</v>
       </c>
       <c r="E147" s="9"/>
-      <c r="F147" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G147" s="64"/>
+      <c r="F147" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G147" s="55"/>
     </row>
     <row r="148" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A148" s="61"/>
-      <c r="B148" s="62" t="s">
+      <c r="A148" s="52"/>
+      <c r="B148" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="C148" s="62"/>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="63"/>
-      <c r="G148" s="63"/>
+      <c r="C148" s="53"/>
+      <c r="D148" s="53"/>
+      <c r="E148" s="53"/>
+      <c r="F148" s="54"/>
+      <c r="G148" s="54"/>
     </row>
     <row r="149" spans="1:7" ht="63">
-      <c r="A149" s="46" t="s">
+      <c r="A149" s="37" t="s">
         <v>728</v>
       </c>
       <c r="B149" s="3" t="s">
@@ -7688,24 +7780,24 @@
         <v>336</v>
       </c>
       <c r="E149" s="9"/>
-      <c r="F149" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G149" s="64"/>
+      <c r="F149" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G149" s="55"/>
     </row>
     <row r="150" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A150" s="61"/>
-      <c r="B150" s="62" t="s">
+      <c r="A150" s="52"/>
+      <c r="B150" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="C150" s="62"/>
-      <c r="D150" s="62"/>
-      <c r="E150" s="62"/>
-      <c r="F150" s="63"/>
-      <c r="G150" s="63"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="53"/>
+      <c r="E150" s="53"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="54"/>
     </row>
     <row r="151" spans="1:7" ht="63">
-      <c r="A151" s="46" t="s">
+      <c r="A151" s="37" t="s">
         <v>729</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -7718,35 +7810,35 @@
         <v>336</v>
       </c>
       <c r="E151" s="9"/>
-      <c r="F151" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G151" s="64"/>
-    </row>
-    <row r="152" spans="1:7" s="45" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A152" s="57"/>
-      <c r="B152" s="58" t="s">
+      <c r="F151" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G151" s="55"/>
+    </row>
+    <row r="152" spans="1:7" s="36" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A152" s="48"/>
+      <c r="B152" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="C152" s="58"/>
-      <c r="D152" s="58"/>
-      <c r="E152" s="58"/>
-      <c r="F152" s="59"/>
-      <c r="G152" s="60"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="50"/>
+      <c r="G152" s="51"/>
     </row>
     <row r="153" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A153" s="61"/>
-      <c r="B153" s="62" t="s">
+      <c r="A153" s="52"/>
+      <c r="B153" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C153" s="62"/>
-      <c r="D153" s="62"/>
-      <c r="E153" s="62"/>
-      <c r="F153" s="63"/>
-      <c r="G153" s="63"/>
+      <c r="C153" s="53"/>
+      <c r="D153" s="53"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="54"/>
+      <c r="G153" s="54"/>
     </row>
     <row r="154" spans="1:7" ht="78.75">
-      <c r="A154" s="46" t="s">
+      <c r="A154" s="37" t="s">
         <v>730</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -7759,13 +7851,13 @@
         <v>592</v>
       </c>
       <c r="E154" s="5"/>
-      <c r="F154" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G154" s="64"/>
+      <c r="F154" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G154" s="55"/>
     </row>
     <row r="155" spans="1:7" ht="189">
-      <c r="A155" s="46" t="s">
+      <c r="A155" s="37" t="s">
         <v>731</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -7778,24 +7870,24 @@
         <v>13</v>
       </c>
       <c r="E155" s="5"/>
-      <c r="F155" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G155" s="64"/>
+      <c r="F155" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G155" s="55"/>
     </row>
     <row r="156" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A156" s="61"/>
-      <c r="B156" s="62" t="s">
+      <c r="A156" s="52"/>
+      <c r="B156" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="C156" s="62"/>
-      <c r="D156" s="62"/>
-      <c r="E156" s="62"/>
-      <c r="F156" s="63"/>
-      <c r="G156" s="63"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="53"/>
+      <c r="E156" s="53"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="54"/>
     </row>
     <row r="157" spans="1:7" ht="63">
-      <c r="A157" s="46" t="s">
+      <c r="A157" s="37" t="s">
         <v>732</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -7808,13 +7900,13 @@
         <v>344</v>
       </c>
       <c r="E157" s="9"/>
-      <c r="F157" s="36" t="s">
+      <c r="F157" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G157" s="64"/>
+      <c r="G157" s="55"/>
     </row>
     <row r="158" spans="1:7" ht="78.75">
-      <c r="A158" s="46" t="s">
+      <c r="A158" s="37" t="s">
         <v>733</v>
       </c>
       <c r="B158" s="3" t="s">
@@ -7827,13 +7919,13 @@
         <v>344</v>
       </c>
       <c r="E158" s="9"/>
-      <c r="F158" s="36" t="s">
+      <c r="F158" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G158" s="64"/>
+      <c r="G158" s="55"/>
     </row>
     <row r="159" spans="1:7" ht="63">
-      <c r="A159" s="46" t="s">
+      <c r="A159" s="37" t="s">
         <v>734</v>
       </c>
       <c r="B159" s="3" t="s">
@@ -7848,13 +7940,13 @@
       <c r="E159" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="F159" s="36" t="s">
+      <c r="F159" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G159" s="64"/>
+      <c r="G159" s="55"/>
     </row>
     <row r="160" spans="1:7" ht="63">
-      <c r="A160" s="46" t="s">
+      <c r="A160" s="37" t="s">
         <v>735</v>
       </c>
       <c r="B160" s="3" t="s">
@@ -7869,13 +7961,13 @@
       <c r="E160" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="F160" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G160" s="64"/>
+      <c r="F160" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G160" s="55"/>
     </row>
     <row r="161" spans="1:7" ht="63">
-      <c r="A161" s="46" t="s">
+      <c r="A161" s="37" t="s">
         <v>736</v>
       </c>
       <c r="B161" s="3" t="s">
@@ -7890,13 +7982,13 @@
       <c r="E161" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="F161" s="36" t="s">
+      <c r="F161" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G161" s="64"/>
+      <c r="G161" s="55"/>
     </row>
     <row r="162" spans="1:7" ht="63">
-      <c r="A162" s="46" t="s">
+      <c r="A162" s="37" t="s">
         <v>737</v>
       </c>
       <c r="B162" s="3" t="s">
@@ -7909,15 +8001,15 @@
         <v>352</v>
       </c>
       <c r="E162" s="9"/>
-      <c r="F162" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G162" s="69" t="s">
+      <c r="F162" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G162" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="78.75">
-      <c r="A163" s="46" t="s">
+      <c r="A163" s="37" t="s">
         <v>738</v>
       </c>
       <c r="B163" s="3" t="s">
@@ -7930,15 +8022,15 @@
         <v>355</v>
       </c>
       <c r="E163" s="9"/>
-      <c r="F163" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G163" s="69" t="s">
+      <c r="F163" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G163" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="63">
-      <c r="A164" s="46" t="s">
+      <c r="A164" s="37" t="s">
         <v>739</v>
       </c>
       <c r="B164" s="3" t="s">
@@ -7951,15 +8043,15 @@
         <v>358</v>
       </c>
       <c r="E164" s="9"/>
-      <c r="F164" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G164" s="69" t="s">
+      <c r="F164" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G164" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="78.75">
-      <c r="A165" s="46" t="s">
+      <c r="A165" s="37" t="s">
         <v>740</v>
       </c>
       <c r="B165" s="3" t="s">
@@ -7972,15 +8064,15 @@
         <v>361</v>
       </c>
       <c r="E165" s="9"/>
-      <c r="F165" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G165" s="69" t="s">
+      <c r="F165" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G165" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="78.75">
-      <c r="A166" s="46" t="s">
+      <c r="A166" s="37" t="s">
         <v>741</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -7993,15 +8085,15 @@
         <v>364</v>
       </c>
       <c r="E166" s="9"/>
-      <c r="F166" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G166" s="69" t="s">
+      <c r="F166" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G166" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="78.75">
-      <c r="A167" s="46" t="s">
+      <c r="A167" s="37" t="s">
         <v>742</v>
       </c>
       <c r="B167" s="3" t="s">
@@ -8014,15 +8106,15 @@
         <v>366</v>
       </c>
       <c r="E167" s="9"/>
-      <c r="F167" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G167" s="69" t="s">
+      <c r="F167" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G167" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="78.75">
-      <c r="A168" s="46" t="s">
+      <c r="A168" s="37" t="s">
         <v>743</v>
       </c>
       <c r="B168" s="3" t="s">
@@ -8035,26 +8127,26 @@
         <v>164</v>
       </c>
       <c r="E168" s="9"/>
-      <c r="F168" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G168" s="69" t="s">
+      <c r="F168" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G168" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A169" s="61"/>
-      <c r="B169" s="62" t="s">
+      <c r="A169" s="52"/>
+      <c r="B169" s="53" t="s">
         <v>373</v>
       </c>
-      <c r="C169" s="62"/>
-      <c r="D169" s="62"/>
-      <c r="E169" s="62"/>
-      <c r="F169" s="63"/>
-      <c r="G169" s="63"/>
+      <c r="C169" s="53"/>
+      <c r="D169" s="53"/>
+      <c r="E169" s="53"/>
+      <c r="F169" s="54"/>
+      <c r="G169" s="54"/>
     </row>
     <row r="170" spans="1:7" ht="63">
-      <c r="A170" s="46" t="s">
+      <c r="A170" s="37" t="s">
         <v>744</v>
       </c>
       <c r="B170" s="3" t="s">
@@ -8067,13 +8159,13 @@
         <v>73</v>
       </c>
       <c r="E170" s="9"/>
-      <c r="F170" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="G170" s="64"/>
+      <c r="F170" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="G170" s="55"/>
     </row>
     <row r="171" spans="1:7" ht="78.75">
-      <c r="A171" s="46" t="s">
+      <c r="A171" s="37" t="s">
         <v>745</v>
       </c>
       <c r="B171" s="3" t="s">
@@ -8086,13 +8178,13 @@
         <v>73</v>
       </c>
       <c r="E171" s="9"/>
-      <c r="F171" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="G171" s="64"/>
+      <c r="F171" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="G171" s="55"/>
     </row>
     <row r="172" spans="1:7" ht="63">
-      <c r="A172" s="46" t="s">
+      <c r="A172" s="37" t="s">
         <v>746</v>
       </c>
       <c r="B172" s="3" t="s">
@@ -8105,13 +8197,13 @@
         <v>405</v>
       </c>
       <c r="E172" s="9"/>
-      <c r="F172" s="36" t="s">
+      <c r="F172" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G172" s="64"/>
+      <c r="G172" s="55"/>
     </row>
     <row r="173" spans="1:7" ht="63">
-      <c r="A173" s="46" t="s">
+      <c r="A173" s="37" t="s">
         <v>747</v>
       </c>
       <c r="B173" s="3" t="s">
@@ -8126,13 +8218,13 @@
       <c r="E173" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="F173" s="36" t="s">
+      <c r="F173" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G173" s="64"/>
+      <c r="G173" s="55"/>
     </row>
     <row r="174" spans="1:7" ht="63">
-      <c r="A174" s="46" t="s">
+      <c r="A174" s="37" t="s">
         <v>748</v>
       </c>
       <c r="B174" s="3" t="s">
@@ -8147,13 +8239,13 @@
       <c r="E174" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="F174" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G174" s="64"/>
+      <c r="F174" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G174" s="55"/>
     </row>
     <row r="175" spans="1:7" ht="63">
-      <c r="A175" s="46" t="s">
+      <c r="A175" s="37" t="s">
         <v>749</v>
       </c>
       <c r="B175" s="3" t="s">
@@ -8166,13 +8258,13 @@
         <v>384</v>
       </c>
       <c r="E175" s="9"/>
-      <c r="F175" s="33" t="s">
+      <c r="F175" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="G175" s="64"/>
+      <c r="G175" s="55"/>
     </row>
     <row r="176" spans="1:7" ht="63">
-      <c r="A176" s="46" t="s">
+      <c r="A176" s="37" t="s">
         <v>750</v>
       </c>
       <c r="B176" s="3" t="s">
@@ -8185,15 +8277,15 @@
         <v>387</v>
       </c>
       <c r="E176" s="9"/>
-      <c r="F176" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G176" s="69" t="s">
+      <c r="F176" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G176" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="78.75">
-      <c r="A177" s="46" t="s">
+      <c r="A177" s="37" t="s">
         <v>751</v>
       </c>
       <c r="B177" s="3" t="s">
@@ -8206,15 +8298,15 @@
         <v>390</v>
       </c>
       <c r="E177" s="9"/>
-      <c r="F177" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G177" s="69" t="s">
+      <c r="F177" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G177" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="63">
-      <c r="A178" s="46" t="s">
+      <c r="A178" s="37" t="s">
         <v>752</v>
       </c>
       <c r="B178" s="3" t="s">
@@ -8227,15 +8319,15 @@
         <v>393</v>
       </c>
       <c r="E178" s="9"/>
-      <c r="F178" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G178" s="69" t="s">
+      <c r="F178" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G178" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="63">
-      <c r="A179" s="46" t="s">
+      <c r="A179" s="37" t="s">
         <v>753</v>
       </c>
       <c r="B179" s="3" t="s">
@@ -8248,15 +8340,15 @@
         <v>396</v>
       </c>
       <c r="E179" s="9"/>
-      <c r="F179" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G179" s="69" t="s">
+      <c r="F179" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G179" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="78.75">
-      <c r="A180" s="46" t="s">
+      <c r="A180" s="37" t="s">
         <v>754</v>
       </c>
       <c r="B180" s="3" t="s">
@@ -8269,15 +8361,15 @@
         <v>399</v>
       </c>
       <c r="E180" s="9"/>
-      <c r="F180" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G180" s="69" t="s">
+      <c r="F180" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G180" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="78.75">
-      <c r="A181" s="46" t="s">
+      <c r="A181" s="37" t="s">
         <v>755</v>
       </c>
       <c r="B181" s="3" t="s">
@@ -8290,15 +8382,15 @@
         <v>401</v>
       </c>
       <c r="E181" s="9"/>
-      <c r="F181" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G181" s="69" t="s">
+      <c r="F181" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G181" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="78.75">
-      <c r="A182" s="46" t="s">
+      <c r="A182" s="37" t="s">
         <v>756</v>
       </c>
       <c r="B182" s="3" t="s">
@@ -8311,26 +8403,26 @@
         <v>164</v>
       </c>
       <c r="E182" s="9"/>
-      <c r="F182" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G182" s="69" t="s">
+      <c r="F182" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G182" s="60" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A183" s="61"/>
-      <c r="B183" s="62" t="s">
+      <c r="A183" s="52"/>
+      <c r="B183" s="53" t="s">
         <v>406</v>
       </c>
-      <c r="C183" s="62"/>
-      <c r="D183" s="62"/>
-      <c r="E183" s="62"/>
-      <c r="F183" s="63"/>
-      <c r="G183" s="63"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="53"/>
+      <c r="E183" s="53"/>
+      <c r="F183" s="54"/>
+      <c r="G183" s="54"/>
     </row>
     <row r="184" spans="1:7" ht="31.5">
-      <c r="A184" s="46" t="s">
+      <c r="A184" s="37" t="s">
         <v>757</v>
       </c>
       <c r="B184" s="3" t="s">
@@ -8343,15 +8435,15 @@
         <v>407</v>
       </c>
       <c r="E184" s="9"/>
-      <c r="F184" s="36" t="s">
+      <c r="F184" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G184" s="69" t="s">
+      <c r="G184" s="60" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="31.5">
-      <c r="A185" s="46" t="s">
+      <c r="A185" s="37" t="s">
         <v>758</v>
       </c>
       <c r="B185" s="3" t="s">
@@ -8364,15 +8456,15 @@
         <v>410</v>
       </c>
       <c r="E185" s="9"/>
-      <c r="F185" s="36" t="s">
+      <c r="F185" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G185" s="69" t="s">
+      <c r="G185" s="60" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="78.75">
-      <c r="A186" s="46" t="s">
+      <c r="A186" s="37" t="s">
         <v>759</v>
       </c>
       <c r="B186" s="3" t="s">
@@ -8385,15 +8477,15 @@
         <v>413</v>
       </c>
       <c r="E186" s="9"/>
-      <c r="F186" s="36" t="s">
+      <c r="F186" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G186" s="69" t="s">
+      <c r="G186" s="60" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="78.75">
-      <c r="A187" s="46" t="s">
+      <c r="A187" s="37" t="s">
         <v>760</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -8406,15 +8498,15 @@
         <v>416</v>
       </c>
       <c r="E187" s="9"/>
-      <c r="F187" s="36" t="s">
+      <c r="F187" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G187" s="69" t="s">
+      <c r="G187" s="60" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="78.75">
-      <c r="A188" s="46" t="s">
+      <c r="A188" s="37" t="s">
         <v>761</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -8427,24 +8519,24 @@
         <v>419</v>
       </c>
       <c r="E188" s="9"/>
-      <c r="F188" s="36" t="s">
+      <c r="F188" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G188" s="64"/>
+      <c r="G188" s="55"/>
     </row>
     <row r="189" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A189" s="61"/>
-      <c r="B189" s="62" t="s">
+      <c r="A189" s="52"/>
+      <c r="B189" s="53" t="s">
         <v>420</v>
       </c>
-      <c r="C189" s="62"/>
-      <c r="D189" s="62"/>
-      <c r="E189" s="62"/>
-      <c r="F189" s="63"/>
-      <c r="G189" s="63"/>
+      <c r="C189" s="53"/>
+      <c r="D189" s="53"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="54"/>
+      <c r="G189" s="54"/>
     </row>
     <row r="190" spans="1:7" ht="78.75">
-      <c r="A190" s="46" t="s">
+      <c r="A190" s="37" t="s">
         <v>762</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -8457,13 +8549,13 @@
         <v>423</v>
       </c>
       <c r="E190" s="9"/>
-      <c r="F190" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G190" s="64"/>
+      <c r="F190" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G190" s="55"/>
     </row>
     <row r="191" spans="1:7" ht="63">
-      <c r="A191" s="46" t="s">
+      <c r="A191" s="37" t="s">
         <v>763</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -8476,15 +8568,15 @@
         <v>426</v>
       </c>
       <c r="E191" s="9"/>
-      <c r="F191" s="35" t="s">
+      <c r="F191" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G191" s="69" t="s">
+      <c r="G191" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="63">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="37" t="s">
         <v>764</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -8497,15 +8589,15 @@
         <v>429</v>
       </c>
       <c r="E192" s="9"/>
-      <c r="F192" s="35" t="s">
+      <c r="F192" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G192" s="69" t="s">
+      <c r="G192" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="78.75">
-      <c r="A193" s="46" t="s">
+      <c r="A193" s="37" t="s">
         <v>765</v>
       </c>
       <c r="B193" s="3" t="s">
@@ -8518,15 +8610,15 @@
         <v>432</v>
       </c>
       <c r="E193" s="9"/>
-      <c r="F193" s="35" t="s">
+      <c r="F193" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G193" s="69" t="s">
+      <c r="G193" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="78.75">
-      <c r="A194" s="46" t="s">
+      <c r="A194" s="37" t="s">
         <v>766</v>
       </c>
       <c r="B194" s="3" t="s">
@@ -8539,15 +8631,15 @@
         <v>435</v>
       </c>
       <c r="E194" s="9"/>
-      <c r="F194" s="35" t="s">
+      <c r="F194" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G194" s="69" t="s">
+      <c r="G194" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="78.75">
-      <c r="A195" s="46" t="s">
+      <c r="A195" s="37" t="s">
         <v>767</v>
       </c>
       <c r="B195" s="3" t="s">
@@ -8560,15 +8652,15 @@
         <v>438</v>
       </c>
       <c r="E195" s="9"/>
-      <c r="F195" s="35" t="s">
+      <c r="F195" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G195" s="69" t="s">
+      <c r="G195" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="78.75">
-      <c r="A196" s="46" t="s">
+      <c r="A196" s="37" t="s">
         <v>768</v>
       </c>
       <c r="B196" s="3" t="s">
@@ -8581,15 +8673,15 @@
         <v>441</v>
       </c>
       <c r="E196" s="9"/>
-      <c r="F196" s="35" t="s">
+      <c r="F196" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G196" s="69" t="s">
+      <c r="G196" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="78.75">
-      <c r="A197" s="46" t="s">
+      <c r="A197" s="37" t="s">
         <v>769</v>
       </c>
       <c r="B197" s="3" t="s">
@@ -8602,15 +8694,15 @@
         <v>444</v>
       </c>
       <c r="E197" s="9"/>
-      <c r="F197" s="35" t="s">
+      <c r="F197" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G197" s="69" t="s">
+      <c r="G197" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="78.75">
-      <c r="A198" s="46" t="s">
+      <c r="A198" s="37" t="s">
         <v>770</v>
       </c>
       <c r="B198" s="3" t="s">
@@ -8623,15 +8715,15 @@
         <v>447</v>
       </c>
       <c r="E198" s="9"/>
-      <c r="F198" s="35" t="s">
+      <c r="F198" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G198" s="69" t="s">
+      <c r="G198" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="78.75">
-      <c r="A199" s="46" t="s">
+      <c r="A199" s="37" t="s">
         <v>771</v>
       </c>
       <c r="B199" s="3" t="s">
@@ -8644,15 +8736,15 @@
         <v>450</v>
       </c>
       <c r="E199" s="9"/>
-      <c r="F199" s="35" t="s">
+      <c r="F199" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G199" s="69" t="s">
+      <c r="G199" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="78.75">
-      <c r="A200" s="46" t="s">
+      <c r="A200" s="37" t="s">
         <v>772</v>
       </c>
       <c r="B200" s="3" t="s">
@@ -8665,15 +8757,15 @@
         <v>444</v>
       </c>
       <c r="E200" s="9"/>
-      <c r="F200" s="35" t="s">
+      <c r="F200" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G200" s="69" t="s">
+      <c r="G200" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="78.75">
-      <c r="A201" s="46" t="s">
+      <c r="A201" s="37" t="s">
         <v>773</v>
       </c>
       <c r="B201" s="3" t="s">
@@ -8686,15 +8778,15 @@
         <v>455</v>
       </c>
       <c r="E201" s="9"/>
-      <c r="F201" s="35" t="s">
+      <c r="F201" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G201" s="69" t="s">
+      <c r="G201" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="78.75">
-      <c r="A202" s="46" t="s">
+      <c r="A202" s="37" t="s">
         <v>774</v>
       </c>
       <c r="B202" s="3" t="s">
@@ -8707,15 +8799,15 @@
         <v>458</v>
       </c>
       <c r="E202" s="9"/>
-      <c r="F202" s="35" t="s">
+      <c r="F202" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G202" s="69" t="s">
+      <c r="G202" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="78.75">
-      <c r="A203" s="46" t="s">
+      <c r="A203" s="37" t="s">
         <v>775</v>
       </c>
       <c r="B203" s="3" t="s">
@@ -8728,15 +8820,15 @@
         <v>461</v>
       </c>
       <c r="E203" s="9"/>
-      <c r="F203" s="35" t="s">
+      <c r="F203" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G203" s="69" t="s">
+      <c r="G203" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="78.75">
-      <c r="A204" s="46" t="s">
+      <c r="A204" s="37" t="s">
         <v>776</v>
       </c>
       <c r="B204" s="3" t="s">
@@ -8749,26 +8841,26 @@
         <v>464</v>
       </c>
       <c r="E204" s="9"/>
-      <c r="F204" s="35" t="s">
+      <c r="F204" s="26" t="s">
         <v>559</v>
       </c>
-      <c r="G204" s="69" t="s">
+      <c r="G204" s="60" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="15.75">
-      <c r="A205" s="61"/>
-      <c r="B205" s="62" t="s">
+      <c r="A205" s="52"/>
+      <c r="B205" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="C205" s="62"/>
-      <c r="D205" s="62"/>
-      <c r="E205" s="62"/>
-      <c r="F205" s="62"/>
-      <c r="G205" s="62"/>
+      <c r="C205" s="53"/>
+      <c r="D205" s="53"/>
+      <c r="E205" s="53"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="53"/>
     </row>
     <row r="206" spans="1:7" ht="31.5">
-      <c r="A206" s="46" t="s">
+      <c r="A206" s="37" t="s">
         <v>777</v>
       </c>
       <c r="B206" s="3" t="s">
@@ -8781,35 +8873,35 @@
         <v>242</v>
       </c>
       <c r="E206" s="9"/>
-      <c r="F206" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G206" s="64"/>
-    </row>
-    <row r="207" spans="1:7" s="45" customFormat="1" ht="27" customHeight="1">
-      <c r="A207" s="57"/>
-      <c r="B207" s="58" t="s">
+      <c r="F206" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G206" s="55"/>
+    </row>
+    <row r="207" spans="1:7" s="36" customFormat="1" ht="27" customHeight="1">
+      <c r="A207" s="48"/>
+      <c r="B207" s="49" t="s">
         <v>465</v>
       </c>
-      <c r="C207" s="58"/>
-      <c r="D207" s="58"/>
-      <c r="E207" s="58"/>
-      <c r="F207" s="59"/>
-      <c r="G207" s="60"/>
+      <c r="C207" s="49"/>
+      <c r="D207" s="49"/>
+      <c r="E207" s="49"/>
+      <c r="F207" s="50"/>
+      <c r="G207" s="51"/>
     </row>
     <row r="208" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A208" s="61"/>
-      <c r="B208" s="62" t="s">
+      <c r="A208" s="52"/>
+      <c r="B208" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C208" s="62"/>
-      <c r="D208" s="62"/>
-      <c r="E208" s="62"/>
-      <c r="F208" s="63"/>
-      <c r="G208" s="76"/>
+      <c r="C208" s="53"/>
+      <c r="D208" s="53"/>
+      <c r="E208" s="53"/>
+      <c r="F208" s="54"/>
+      <c r="G208" s="67"/>
     </row>
     <row r="209" spans="1:7" ht="94.5">
-      <c r="A209" s="46" t="s">
+      <c r="A209" s="37" t="s">
         <v>778</v>
       </c>
       <c r="B209" s="3" t="s">
@@ -8822,13 +8914,13 @@
         <v>599</v>
       </c>
       <c r="E209" s="5"/>
-      <c r="F209" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G209" s="64"/>
+      <c r="F209" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G209" s="55"/>
     </row>
     <row r="210" spans="1:7" ht="189">
-      <c r="A210" s="46" t="s">
+      <c r="A210" s="37" t="s">
         <v>779</v>
       </c>
       <c r="B210" s="3" t="s">
@@ -8841,24 +8933,24 @@
         <v>13</v>
       </c>
       <c r="E210" s="5"/>
-      <c r="F210" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G210" s="64"/>
+      <c r="F210" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G210" s="55"/>
     </row>
     <row r="211" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A211" s="61"/>
-      <c r="B211" s="62" t="s">
+      <c r="A211" s="52"/>
+      <c r="B211" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="C211" s="62"/>
-      <c r="D211" s="62"/>
-      <c r="E211" s="62"/>
-      <c r="F211" s="63"/>
-      <c r="G211" s="76"/>
+      <c r="C211" s="53"/>
+      <c r="D211" s="53"/>
+      <c r="E211" s="53"/>
+      <c r="F211" s="54"/>
+      <c r="G211" s="67"/>
     </row>
     <row r="212" spans="1:7" ht="63">
-      <c r="A212" s="46" t="s">
+      <c r="A212" s="37" t="s">
         <v>780</v>
       </c>
       <c r="B212" s="3" t="s">
@@ -8871,13 +8963,13 @@
         <v>73</v>
       </c>
       <c r="E212" s="9"/>
-      <c r="F212" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G212" s="64"/>
+      <c r="F212" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G212" s="55"/>
     </row>
     <row r="213" spans="1:7" ht="78.75">
-      <c r="A213" s="46" t="s">
+      <c r="A213" s="37" t="s">
         <v>781</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -8890,13 +8982,13 @@
         <v>73</v>
       </c>
       <c r="E213" s="9"/>
-      <c r="F213" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G213" s="64"/>
+      <c r="F213" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G213" s="55"/>
     </row>
     <row r="214" spans="1:7" ht="63">
-      <c r="A214" s="46" t="s">
+      <c r="A214" s="37" t="s">
         <v>782</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -8911,13 +9003,13 @@
       <c r="E214" s="8" t="s">
         <v>600</v>
       </c>
-      <c r="F214" s="36" t="s">
+      <c r="F214" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G214" s="64"/>
+      <c r="G214" s="55"/>
     </row>
     <row r="215" spans="1:7" ht="63">
-      <c r="A215" s="46" t="s">
+      <c r="A215" s="37" t="s">
         <v>783</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -8932,13 +9024,13 @@
       <c r="E215" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="F215" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G215" s="64"/>
+      <c r="F215" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G215" s="55"/>
     </row>
     <row r="216" spans="1:7" ht="78.75">
-      <c r="A216" s="46" t="s">
+      <c r="A216" s="37" t="s">
         <v>784</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -8951,13 +9043,13 @@
         <v>484</v>
       </c>
       <c r="E216" s="9"/>
-      <c r="F216" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G216" s="64"/>
+      <c r="F216" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G216" s="55"/>
     </row>
     <row r="217" spans="1:7" ht="78.75">
-      <c r="A217" s="46" t="s">
+      <c r="A217" s="37" t="s">
         <v>785</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -8970,24 +9062,24 @@
         <v>473</v>
       </c>
       <c r="E217" s="9"/>
-      <c r="F217" s="36" t="s">
+      <c r="F217" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G217" s="64"/>
+      <c r="G217" s="55"/>
     </row>
     <row r="218" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A218" s="61"/>
-      <c r="B218" s="62" t="s">
+      <c r="A218" s="52"/>
+      <c r="B218" s="53" t="s">
         <v>485</v>
       </c>
-      <c r="C218" s="62"/>
-      <c r="D218" s="62"/>
-      <c r="E218" s="62"/>
-      <c r="F218" s="63"/>
-      <c r="G218" s="76"/>
+      <c r="C218" s="53"/>
+      <c r="D218" s="53"/>
+      <c r="E218" s="53"/>
+      <c r="F218" s="54"/>
+      <c r="G218" s="67"/>
     </row>
     <row r="219" spans="1:7" ht="78.75">
-      <c r="A219" s="46" t="s">
+      <c r="A219" s="37" t="s">
         <v>786</v>
       </c>
       <c r="B219" s="3" t="s">
@@ -9000,13 +9092,13 @@
         <v>73</v>
       </c>
       <c r="E219" s="9"/>
-      <c r="F219" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G219" s="64"/>
+      <c r="F219" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G219" s="55"/>
     </row>
     <row r="220" spans="1:7" ht="78.75">
-      <c r="A220" s="46" t="s">
+      <c r="A220" s="37" t="s">
         <v>787</v>
       </c>
       <c r="B220" s="3" t="s">
@@ -9019,13 +9111,13 @@
         <v>73</v>
       </c>
       <c r="E220" s="9"/>
-      <c r="F220" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G220" s="64"/>
+      <c r="F220" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G220" s="55"/>
     </row>
     <row r="221" spans="1:7" ht="150.75" customHeight="1">
-      <c r="A221" s="46" t="s">
+      <c r="A221" s="37" t="s">
         <v>788</v>
       </c>
       <c r="B221" s="3" t="s">
@@ -9040,13 +9132,13 @@
       <c r="E221" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="F221" s="36" t="s">
+      <c r="F221" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G221" s="64"/>
+      <c r="G221" s="55"/>
     </row>
     <row r="222" spans="1:7" ht="116.25" customHeight="1">
-      <c r="A222" s="46" t="s">
+      <c r="A222" s="37" t="s">
         <v>789</v>
       </c>
       <c r="B222" s="3" t="s">
@@ -9061,13 +9153,13 @@
       <c r="E222" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="F222" s="36" t="s">
+      <c r="F222" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G222" s="64"/>
+      <c r="G222" s="55"/>
     </row>
     <row r="223" spans="1:7" ht="78.75">
-      <c r="A223" s="46" t="s">
+      <c r="A223" s="37" t="s">
         <v>790</v>
       </c>
       <c r="B223" s="3" t="s">
@@ -9080,13 +9172,13 @@
         <v>491</v>
       </c>
       <c r="E223" s="9"/>
-      <c r="F223" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G223" s="64"/>
+      <c r="F223" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G223" s="55"/>
     </row>
     <row r="224" spans="1:7" ht="78.75">
-      <c r="A224" s="46" t="s">
+      <c r="A224" s="37" t="s">
         <v>791</v>
       </c>
       <c r="B224" s="3" t="s">
@@ -9099,24 +9191,24 @@
         <v>224</v>
       </c>
       <c r="E224" s="9"/>
-      <c r="F224" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G224" s="64"/>
+      <c r="F224" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G224" s="55"/>
     </row>
     <row r="225" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A225" s="61"/>
-      <c r="B225" s="62" t="s">
+      <c r="A225" s="52"/>
+      <c r="B225" s="53" t="s">
         <v>494</v>
       </c>
-      <c r="C225" s="62"/>
-      <c r="D225" s="62"/>
-      <c r="E225" s="62"/>
-      <c r="F225" s="63"/>
-      <c r="G225" s="76"/>
+      <c r="C225" s="53"/>
+      <c r="D225" s="53"/>
+      <c r="E225" s="53"/>
+      <c r="F225" s="54"/>
+      <c r="G225" s="67"/>
     </row>
     <row r="226" spans="1:7" ht="78.75">
-      <c r="A226" s="46" t="s">
+      <c r="A226" s="37" t="s">
         <v>792</v>
       </c>
       <c r="B226" s="3" t="s">
@@ -9129,13 +9221,13 @@
         <v>73</v>
       </c>
       <c r="E226" s="9"/>
-      <c r="F226" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G226" s="64"/>
+      <c r="F226" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G226" s="55"/>
     </row>
     <row r="227" spans="1:7" ht="78.75">
-      <c r="A227" s="46" t="s">
+      <c r="A227" s="37" t="s">
         <v>793</v>
       </c>
       <c r="B227" s="3" t="s">
@@ -9148,13 +9240,13 @@
         <v>73</v>
       </c>
       <c r="E227" s="9"/>
-      <c r="F227" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G227" s="64"/>
+      <c r="F227" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G227" s="55"/>
     </row>
     <row r="228" spans="1:7" ht="164.25" customHeight="1">
-      <c r="A228" s="46" t="s">
+      <c r="A228" s="37" t="s">
         <v>794</v>
       </c>
       <c r="B228" s="3" t="s">
@@ -9169,13 +9261,13 @@
       <c r="E228" s="8" t="s">
         <v>604</v>
       </c>
-      <c r="F228" s="36" t="s">
+      <c r="F228" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="G228" s="64"/>
+      <c r="G228" s="55"/>
     </row>
     <row r="229" spans="1:7" ht="127.5" customHeight="1">
-      <c r="A229" s="46" t="s">
+      <c r="A229" s="37" t="s">
         <v>795</v>
       </c>
       <c r="B229" s="3" t="s">
@@ -9190,13 +9282,13 @@
       <c r="E229" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="F229" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G229" s="64"/>
+      <c r="F229" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G229" s="55"/>
     </row>
     <row r="230" spans="1:7" ht="78.75">
-      <c r="A230" s="46" t="s">
+      <c r="A230" s="37" t="s">
         <v>796</v>
       </c>
       <c r="B230" s="3" t="s">
@@ -9209,13 +9301,13 @@
         <v>500</v>
       </c>
       <c r="E230" s="9"/>
-      <c r="F230" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G230" s="64"/>
+      <c r="F230" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G230" s="55"/>
     </row>
     <row r="231" spans="1:7" ht="78.75">
-      <c r="A231" s="46" t="s">
+      <c r="A231" s="37" t="s">
         <v>797</v>
       </c>
       <c r="B231" s="3" t="s">
@@ -9228,24 +9320,24 @@
         <v>224</v>
       </c>
       <c r="E231" s="9"/>
-      <c r="F231" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G231" s="64"/>
+      <c r="F231" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G231" s="55"/>
     </row>
     <row r="232" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A232" s="61"/>
-      <c r="B232" s="62" t="s">
+      <c r="A232" s="52"/>
+      <c r="B232" s="53" t="s">
         <v>513</v>
       </c>
-      <c r="C232" s="62"/>
-      <c r="D232" s="62"/>
-      <c r="E232" s="62"/>
-      <c r="F232" s="63"/>
-      <c r="G232" s="76"/>
+      <c r="C232" s="53"/>
+      <c r="D232" s="53"/>
+      <c r="E232" s="53"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="67"/>
     </row>
     <row r="233" spans="1:7" ht="63">
-      <c r="A233" s="46" t="s">
+      <c r="A233" s="37" t="s">
         <v>798</v>
       </c>
       <c r="B233" s="3" t="s">
@@ -9258,13 +9350,13 @@
         <v>516</v>
       </c>
       <c r="E233" s="9"/>
-      <c r="F233" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G233" s="64"/>
+      <c r="F233" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G233" s="55"/>
     </row>
     <row r="234" spans="1:7" ht="94.5">
-      <c r="A234" s="46" t="s">
+      <c r="A234" s="37" t="s">
         <v>799</v>
       </c>
       <c r="B234" s="3" t="s">
@@ -9277,13 +9369,13 @@
         <v>521</v>
       </c>
       <c r="E234" s="9"/>
-      <c r="F234" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G234" s="64"/>
+      <c r="F234" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G234" s="55"/>
     </row>
     <row r="235" spans="1:7" ht="94.5">
-      <c r="A235" s="46" t="s">
+      <c r="A235" s="37" t="s">
         <v>800</v>
       </c>
       <c r="B235" s="3" t="s">
@@ -9296,24 +9388,24 @@
         <v>522</v>
       </c>
       <c r="E235" s="9"/>
-      <c r="F235" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G235" s="64"/>
+      <c r="F235" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G235" s="55"/>
     </row>
     <row r="236" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A236" s="61"/>
-      <c r="B236" s="62" t="s">
+      <c r="A236" s="52"/>
+      <c r="B236" s="53" t="s">
         <v>523</v>
       </c>
-      <c r="C236" s="62"/>
-      <c r="D236" s="62"/>
-      <c r="E236" s="62"/>
-      <c r="F236" s="63"/>
-      <c r="G236" s="76"/>
+      <c r="C236" s="53"/>
+      <c r="D236" s="53"/>
+      <c r="E236" s="53"/>
+      <c r="F236" s="54"/>
+      <c r="G236" s="67"/>
     </row>
     <row r="237" spans="1:7" ht="47.25">
-      <c r="A237" s="46" t="s">
+      <c r="A237" s="37" t="s">
         <v>801</v>
       </c>
       <c r="B237" s="3" t="s">
@@ -9326,24 +9418,24 @@
         <v>526</v>
       </c>
       <c r="E237" s="9"/>
-      <c r="F237" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G237" s="64"/>
+      <c r="F237" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G237" s="55"/>
     </row>
     <row r="238" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A238" s="61"/>
-      <c r="B238" s="62" t="s">
+      <c r="A238" s="52"/>
+      <c r="B238" s="53" t="s">
         <v>527</v>
       </c>
-      <c r="C238" s="62"/>
-      <c r="D238" s="62"/>
-      <c r="E238" s="62"/>
-      <c r="F238" s="63"/>
-      <c r="G238" s="76"/>
+      <c r="C238" s="53"/>
+      <c r="D238" s="53"/>
+      <c r="E238" s="53"/>
+      <c r="F238" s="54"/>
+      <c r="G238" s="67"/>
     </row>
     <row r="239" spans="1:7" ht="47.25">
-      <c r="A239" s="46" t="s">
+      <c r="A239" s="37" t="s">
         <v>802</v>
       </c>
       <c r="B239" s="3" t="s">
@@ -9356,24 +9448,24 @@
         <v>529</v>
       </c>
       <c r="E239" s="9"/>
-      <c r="F239" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G239" s="64"/>
+      <c r="F239" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G239" s="55"/>
     </row>
     <row r="240" spans="1:7" ht="15.75">
-      <c r="A240" s="61"/>
-      <c r="B240" s="62" t="s">
+      <c r="A240" s="52"/>
+      <c r="B240" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="C240" s="62"/>
-      <c r="D240" s="62"/>
-      <c r="E240" s="62"/>
-      <c r="F240" s="63"/>
-      <c r="G240" s="76"/>
+      <c r="C240" s="53"/>
+      <c r="D240" s="53"/>
+      <c r="E240" s="53"/>
+      <c r="F240" s="54"/>
+      <c r="G240" s="67"/>
     </row>
     <row r="241" spans="1:7" ht="31.5">
-      <c r="A241" s="46" t="s">
+      <c r="A241" s="37" t="s">
         <v>803</v>
       </c>
       <c r="B241" s="3" t="s">
@@ -9386,640 +9478,640 @@
         <v>242</v>
       </c>
       <c r="E241" s="9"/>
-      <c r="F241" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="G241" s="64"/>
+      <c r="F241" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="G241" s="55"/>
     </row>
     <row r="242" spans="1:7">
-      <c r="G242" s="38"/>
+      <c r="G242" s="29"/>
     </row>
     <row r="243" spans="1:7">
-      <c r="G243" s="38"/>
+      <c r="G243" s="29"/>
     </row>
     <row r="244" spans="1:7">
-      <c r="G244" s="38"/>
+      <c r="G244" s="29"/>
     </row>
     <row r="245" spans="1:7">
-      <c r="G245" s="38"/>
+      <c r="G245" s="29"/>
     </row>
     <row r="246" spans="1:7">
-      <c r="G246" s="38"/>
+      <c r="G246" s="29"/>
     </row>
     <row r="247" spans="1:7">
-      <c r="G247" s="38"/>
+      <c r="G247" s="29"/>
     </row>
     <row r="248" spans="1:7">
-      <c r="G248" s="38"/>
+      <c r="G248" s="29"/>
     </row>
     <row r="249" spans="1:7">
-      <c r="G249" s="38"/>
+      <c r="G249" s="29"/>
     </row>
     <row r="250" spans="1:7">
-      <c r="G250" s="38"/>
+      <c r="G250" s="29"/>
     </row>
     <row r="251" spans="1:7">
-      <c r="G251" s="38"/>
+      <c r="G251" s="29"/>
     </row>
     <row r="252" spans="1:7">
-      <c r="G252" s="38"/>
+      <c r="G252" s="29"/>
     </row>
     <row r="253" spans="1:7">
-      <c r="G253" s="38"/>
+      <c r="G253" s="29"/>
     </row>
     <row r="254" spans="1:7">
-      <c r="G254" s="38"/>
+      <c r="G254" s="29"/>
     </row>
     <row r="255" spans="1:7">
-      <c r="G255" s="38"/>
+      <c r="G255" s="29"/>
     </row>
     <row r="256" spans="1:7">
-      <c r="G256" s="38"/>
+      <c r="G256" s="29"/>
     </row>
     <row r="257" spans="7:7">
-      <c r="G257" s="38"/>
+      <c r="G257" s="29"/>
     </row>
     <row r="258" spans="7:7">
-      <c r="G258" s="38"/>
+      <c r="G258" s="29"/>
     </row>
     <row r="259" spans="7:7">
-      <c r="G259" s="38"/>
+      <c r="G259" s="29"/>
     </row>
     <row r="260" spans="7:7">
-      <c r="G260" s="38"/>
+      <c r="G260" s="29"/>
     </row>
     <row r="261" spans="7:7">
-      <c r="G261" s="38"/>
+      <c r="G261" s="29"/>
     </row>
     <row r="262" spans="7:7">
-      <c r="G262" s="38"/>
+      <c r="G262" s="29"/>
     </row>
     <row r="263" spans="7:7">
-      <c r="G263" s="38"/>
+      <c r="G263" s="29"/>
     </row>
     <row r="264" spans="7:7">
-      <c r="G264" s="38"/>
+      <c r="G264" s="29"/>
     </row>
     <row r="265" spans="7:7">
-      <c r="G265" s="38"/>
+      <c r="G265" s="29"/>
     </row>
     <row r="266" spans="7:7">
-      <c r="G266" s="38"/>
+      <c r="G266" s="29"/>
     </row>
     <row r="267" spans="7:7">
-      <c r="G267" s="38"/>
+      <c r="G267" s="29"/>
     </row>
     <row r="268" spans="7:7">
-      <c r="G268" s="38"/>
+      <c r="G268" s="29"/>
     </row>
     <row r="269" spans="7:7">
-      <c r="G269" s="38"/>
+      <c r="G269" s="29"/>
     </row>
     <row r="270" spans="7:7">
-      <c r="G270" s="38"/>
+      <c r="G270" s="29"/>
     </row>
     <row r="271" spans="7:7">
-      <c r="G271" s="38"/>
+      <c r="G271" s="29"/>
     </row>
     <row r="272" spans="7:7">
-      <c r="G272" s="38"/>
+      <c r="G272" s="29"/>
     </row>
     <row r="273" spans="7:7">
-      <c r="G273" s="38"/>
+      <c r="G273" s="29"/>
     </row>
     <row r="274" spans="7:7">
-      <c r="G274" s="38"/>
+      <c r="G274" s="29"/>
     </row>
     <row r="275" spans="7:7">
-      <c r="G275" s="38"/>
+      <c r="G275" s="29"/>
     </row>
     <row r="276" spans="7:7">
-      <c r="G276" s="38"/>
+      <c r="G276" s="29"/>
     </row>
     <row r="277" spans="7:7">
-      <c r="G277" s="38"/>
+      <c r="G277" s="29"/>
     </row>
     <row r="278" spans="7:7">
-      <c r="G278" s="38"/>
+      <c r="G278" s="29"/>
     </row>
     <row r="279" spans="7:7">
-      <c r="G279" s="38"/>
+      <c r="G279" s="29"/>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="38"/>
+      <c r="G280" s="29"/>
     </row>
     <row r="281" spans="7:7">
-      <c r="G281" s="38"/>
+      <c r="G281" s="29"/>
     </row>
     <row r="282" spans="7:7">
-      <c r="G282" s="38"/>
+      <c r="G282" s="29"/>
     </row>
     <row r="283" spans="7:7">
-      <c r="G283" s="38"/>
+      <c r="G283" s="29"/>
     </row>
     <row r="284" spans="7:7">
-      <c r="G284" s="38"/>
+      <c r="G284" s="29"/>
     </row>
     <row r="285" spans="7:7">
-      <c r="G285" s="38"/>
+      <c r="G285" s="29"/>
     </row>
     <row r="286" spans="7:7">
-      <c r="G286" s="38"/>
+      <c r="G286" s="29"/>
     </row>
     <row r="287" spans="7:7">
-      <c r="G287" s="38"/>
+      <c r="G287" s="29"/>
     </row>
     <row r="288" spans="7:7">
-      <c r="G288" s="38"/>
+      <c r="G288" s="29"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="38"/>
+      <c r="G289" s="29"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="38"/>
+      <c r="G290" s="29"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="38"/>
+      <c r="G291" s="29"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="38"/>
+      <c r="G292" s="29"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="38"/>
+      <c r="G293" s="29"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="38"/>
+      <c r="G294" s="29"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="38"/>
+      <c r="G295" s="29"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="38"/>
+      <c r="G296" s="29"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="38"/>
+      <c r="G297" s="29"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="38"/>
+      <c r="G298" s="29"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="38"/>
+      <c r="G299" s="29"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="38"/>
+      <c r="G300" s="29"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="38"/>
+      <c r="G301" s="29"/>
     </row>
     <row r="302" spans="7:7">
-      <c r="G302" s="38"/>
+      <c r="G302" s="29"/>
     </row>
     <row r="303" spans="7:7">
-      <c r="G303" s="38"/>
+      <c r="G303" s="29"/>
     </row>
     <row r="304" spans="7:7">
-      <c r="G304" s="38"/>
+      <c r="G304" s="29"/>
     </row>
     <row r="305" spans="7:7">
-      <c r="G305" s="38"/>
+      <c r="G305" s="29"/>
     </row>
     <row r="306" spans="7:7">
-      <c r="G306" s="38"/>
+      <c r="G306" s="29"/>
     </row>
     <row r="307" spans="7:7">
-      <c r="G307" s="38"/>
+      <c r="G307" s="29"/>
     </row>
     <row r="308" spans="7:7">
-      <c r="G308" s="38"/>
+      <c r="G308" s="29"/>
     </row>
     <row r="309" spans="7:7">
-      <c r="G309" s="38"/>
+      <c r="G309" s="29"/>
     </row>
     <row r="310" spans="7:7">
-      <c r="G310" s="38"/>
+      <c r="G310" s="29"/>
     </row>
     <row r="311" spans="7:7">
-      <c r="G311" s="38"/>
+      <c r="G311" s="29"/>
     </row>
     <row r="312" spans="7:7">
-      <c r="G312" s="38"/>
+      <c r="G312" s="29"/>
     </row>
     <row r="313" spans="7:7">
-      <c r="G313" s="38"/>
+      <c r="G313" s="29"/>
     </row>
     <row r="314" spans="7:7">
-      <c r="G314" s="38"/>
+      <c r="G314" s="29"/>
     </row>
     <row r="315" spans="7:7">
-      <c r="G315" s="38"/>
+      <c r="G315" s="29"/>
     </row>
     <row r="316" spans="7:7">
-      <c r="G316" s="38"/>
+      <c r="G316" s="29"/>
     </row>
     <row r="317" spans="7:7">
-      <c r="G317" s="38"/>
+      <c r="G317" s="29"/>
     </row>
     <row r="318" spans="7:7">
-      <c r="G318" s="38"/>
+      <c r="G318" s="29"/>
     </row>
     <row r="319" spans="7:7">
-      <c r="G319" s="38"/>
+      <c r="G319" s="29"/>
     </row>
     <row r="320" spans="7:7">
-      <c r="G320" s="38"/>
+      <c r="G320" s="29"/>
     </row>
     <row r="321" spans="7:7">
-      <c r="G321" s="38"/>
+      <c r="G321" s="29"/>
     </row>
     <row r="322" spans="7:7">
-      <c r="G322" s="38"/>
+      <c r="G322" s="29"/>
     </row>
     <row r="323" spans="7:7">
-      <c r="G323" s="38"/>
+      <c r="G323" s="29"/>
     </row>
     <row r="324" spans="7:7">
-      <c r="G324" s="38"/>
+      <c r="G324" s="29"/>
     </row>
     <row r="325" spans="7:7">
-      <c r="G325" s="38"/>
+      <c r="G325" s="29"/>
     </row>
     <row r="326" spans="7:7">
-      <c r="G326" s="38"/>
+      <c r="G326" s="29"/>
     </row>
     <row r="327" spans="7:7">
-      <c r="G327" s="38"/>
+      <c r="G327" s="29"/>
     </row>
     <row r="328" spans="7:7">
-      <c r="G328" s="38"/>
+      <c r="G328" s="29"/>
     </row>
     <row r="329" spans="7:7">
-      <c r="G329" s="38"/>
+      <c r="G329" s="29"/>
     </row>
     <row r="330" spans="7:7">
-      <c r="G330" s="38"/>
+      <c r="G330" s="29"/>
     </row>
     <row r="331" spans="7:7">
-      <c r="G331" s="38"/>
+      <c r="G331" s="29"/>
     </row>
     <row r="332" spans="7:7">
-      <c r="G332" s="38"/>
+      <c r="G332" s="29"/>
     </row>
     <row r="333" spans="7:7">
-      <c r="G333" s="38"/>
+      <c r="G333" s="29"/>
     </row>
     <row r="334" spans="7:7">
-      <c r="G334" s="38"/>
+      <c r="G334" s="29"/>
     </row>
     <row r="335" spans="7:7">
-      <c r="G335" s="38"/>
+      <c r="G335" s="29"/>
     </row>
     <row r="336" spans="7:7">
-      <c r="G336" s="38"/>
+      <c r="G336" s="29"/>
     </row>
     <row r="337" spans="7:7">
-      <c r="G337" s="38"/>
+      <c r="G337" s="29"/>
     </row>
     <row r="338" spans="7:7">
-      <c r="G338" s="38"/>
+      <c r="G338" s="29"/>
     </row>
     <row r="339" spans="7:7">
-      <c r="G339" s="38"/>
+      <c r="G339" s="29"/>
     </row>
     <row r="340" spans="7:7">
-      <c r="G340" s="38"/>
+      <c r="G340" s="29"/>
     </row>
     <row r="341" spans="7:7">
-      <c r="G341" s="38"/>
+      <c r="G341" s="29"/>
     </row>
     <row r="342" spans="7:7">
-      <c r="G342" s="38"/>
+      <c r="G342" s="29"/>
     </row>
     <row r="343" spans="7:7">
-      <c r="G343" s="38"/>
+      <c r="G343" s="29"/>
     </row>
     <row r="344" spans="7:7">
-      <c r="G344" s="38"/>
+      <c r="G344" s="29"/>
     </row>
     <row r="345" spans="7:7">
-      <c r="G345" s="38"/>
+      <c r="G345" s="29"/>
     </row>
     <row r="346" spans="7:7">
-      <c r="G346" s="38"/>
+      <c r="G346" s="29"/>
     </row>
     <row r="347" spans="7:7">
-      <c r="G347" s="38"/>
+      <c r="G347" s="29"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="38"/>
+      <c r="G348" s="29"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="38"/>
+      <c r="G349" s="29"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="38"/>
+      <c r="G350" s="29"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="38"/>
+      <c r="G351" s="29"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="38"/>
+      <c r="G352" s="29"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="38"/>
+      <c r="G353" s="29"/>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="38"/>
+      <c r="G354" s="29"/>
     </row>
     <row r="355" spans="7:7">
-      <c r="G355" s="38"/>
+      <c r="G355" s="29"/>
     </row>
     <row r="356" spans="7:7">
-      <c r="G356" s="38"/>
+      <c r="G356" s="29"/>
     </row>
     <row r="357" spans="7:7">
-      <c r="G357" s="38"/>
+      <c r="G357" s="29"/>
     </row>
     <row r="358" spans="7:7">
-      <c r="G358" s="38"/>
+      <c r="G358" s="29"/>
     </row>
     <row r="359" spans="7:7">
-      <c r="G359" s="38"/>
+      <c r="G359" s="29"/>
     </row>
     <row r="360" spans="7:7">
-      <c r="G360" s="38"/>
+      <c r="G360" s="29"/>
     </row>
     <row r="361" spans="7:7">
-      <c r="G361" s="38"/>
+      <c r="G361" s="29"/>
     </row>
     <row r="362" spans="7:7">
-      <c r="G362" s="38"/>
+      <c r="G362" s="29"/>
     </row>
     <row r="363" spans="7:7">
-      <c r="G363" s="38"/>
+      <c r="G363" s="29"/>
     </row>
     <row r="364" spans="7:7">
-      <c r="G364" s="38"/>
+      <c r="G364" s="29"/>
     </row>
     <row r="365" spans="7:7">
-      <c r="G365" s="38"/>
+      <c r="G365" s="29"/>
     </row>
     <row r="366" spans="7:7">
-      <c r="G366" s="38"/>
+      <c r="G366" s="29"/>
     </row>
     <row r="367" spans="7:7">
-      <c r="G367" s="38"/>
+      <c r="G367" s="29"/>
     </row>
     <row r="368" spans="7:7">
-      <c r="G368" s="38"/>
+      <c r="G368" s="29"/>
     </row>
     <row r="369" spans="7:7">
-      <c r="G369" s="38"/>
+      <c r="G369" s="29"/>
     </row>
     <row r="370" spans="7:7">
-      <c r="G370" s="38"/>
+      <c r="G370" s="29"/>
     </row>
     <row r="371" spans="7:7">
-      <c r="G371" s="38"/>
+      <c r="G371" s="29"/>
     </row>
     <row r="372" spans="7:7">
-      <c r="G372" s="38"/>
+      <c r="G372" s="29"/>
     </row>
     <row r="373" spans="7:7">
-      <c r="G373" s="38"/>
+      <c r="G373" s="29"/>
     </row>
     <row r="374" spans="7:7">
-      <c r="G374" s="38"/>
+      <c r="G374" s="29"/>
     </row>
     <row r="375" spans="7:7">
-      <c r="G375" s="38"/>
+      <c r="G375" s="29"/>
     </row>
     <row r="376" spans="7:7">
-      <c r="G376" s="38"/>
+      <c r="G376" s="29"/>
     </row>
     <row r="377" spans="7:7">
-      <c r="G377" s="38"/>
+      <c r="G377" s="29"/>
     </row>
     <row r="378" spans="7:7">
-      <c r="G378" s="38"/>
+      <c r="G378" s="29"/>
     </row>
     <row r="379" spans="7:7">
-      <c r="G379" s="38"/>
+      <c r="G379" s="29"/>
     </row>
     <row r="380" spans="7:7">
-      <c r="G380" s="38"/>
+      <c r="G380" s="29"/>
     </row>
     <row r="381" spans="7:7">
-      <c r="G381" s="38"/>
+      <c r="G381" s="29"/>
     </row>
     <row r="382" spans="7:7">
-      <c r="G382" s="38"/>
+      <c r="G382" s="29"/>
     </row>
     <row r="383" spans="7:7">
-      <c r="G383" s="38"/>
+      <c r="G383" s="29"/>
     </row>
     <row r="384" spans="7:7">
-      <c r="G384" s="38"/>
+      <c r="G384" s="29"/>
     </row>
     <row r="385" spans="7:7">
-      <c r="G385" s="38"/>
+      <c r="G385" s="29"/>
     </row>
     <row r="386" spans="7:7">
-      <c r="G386" s="38"/>
+      <c r="G386" s="29"/>
     </row>
     <row r="387" spans="7:7">
-      <c r="G387" s="38"/>
+      <c r="G387" s="29"/>
     </row>
     <row r="388" spans="7:7">
-      <c r="G388" s="38"/>
+      <c r="G388" s="29"/>
     </row>
     <row r="389" spans="7:7">
-      <c r="G389" s="38"/>
+      <c r="G389" s="29"/>
     </row>
     <row r="390" spans="7:7">
-      <c r="G390" s="38"/>
+      <c r="G390" s="29"/>
     </row>
     <row r="391" spans="7:7">
-      <c r="G391" s="38"/>
+      <c r="G391" s="29"/>
     </row>
     <row r="392" spans="7:7">
-      <c r="G392" s="38"/>
+      <c r="G392" s="29"/>
     </row>
     <row r="393" spans="7:7">
-      <c r="G393" s="38"/>
+      <c r="G393" s="29"/>
     </row>
     <row r="394" spans="7:7">
-      <c r="G394" s="38"/>
+      <c r="G394" s="29"/>
     </row>
     <row r="395" spans="7:7">
-      <c r="G395" s="38"/>
+      <c r="G395" s="29"/>
     </row>
     <row r="396" spans="7:7">
-      <c r="G396" s="38"/>
+      <c r="G396" s="29"/>
     </row>
     <row r="397" spans="7:7">
-      <c r="G397" s="38"/>
+      <c r="G397" s="29"/>
     </row>
     <row r="398" spans="7:7">
-      <c r="G398" s="38"/>
+      <c r="G398" s="29"/>
     </row>
     <row r="399" spans="7:7">
-      <c r="G399" s="38"/>
+      <c r="G399" s="29"/>
     </row>
     <row r="400" spans="7:7">
-      <c r="G400" s="38"/>
+      <c r="G400" s="29"/>
     </row>
     <row r="401" spans="7:7">
-      <c r="G401" s="38"/>
+      <c r="G401" s="29"/>
     </row>
     <row r="402" spans="7:7">
-      <c r="G402" s="38"/>
+      <c r="G402" s="29"/>
     </row>
     <row r="403" spans="7:7">
-      <c r="G403" s="38"/>
+      <c r="G403" s="29"/>
     </row>
     <row r="404" spans="7:7">
-      <c r="G404" s="38"/>
+      <c r="G404" s="29"/>
     </row>
     <row r="405" spans="7:7">
-      <c r="G405" s="38"/>
+      <c r="G405" s="29"/>
     </row>
     <row r="406" spans="7:7">
-      <c r="G406" s="38"/>
+      <c r="G406" s="29"/>
     </row>
     <row r="407" spans="7:7">
-      <c r="G407" s="38"/>
+      <c r="G407" s="29"/>
     </row>
     <row r="408" spans="7:7">
-      <c r="G408" s="38"/>
+      <c r="G408" s="29"/>
     </row>
     <row r="409" spans="7:7">
-      <c r="G409" s="38"/>
+      <c r="G409" s="29"/>
     </row>
     <row r="410" spans="7:7">
-      <c r="G410" s="38"/>
+      <c r="G410" s="29"/>
     </row>
     <row r="411" spans="7:7">
-      <c r="G411" s="38"/>
+      <c r="G411" s="29"/>
     </row>
     <row r="412" spans="7:7">
-      <c r="G412" s="38"/>
+      <c r="G412" s="29"/>
     </row>
     <row r="413" spans="7:7">
-      <c r="G413" s="38"/>
+      <c r="G413" s="29"/>
     </row>
     <row r="414" spans="7:7">
-      <c r="G414" s="38"/>
+      <c r="G414" s="29"/>
     </row>
     <row r="415" spans="7:7">
-      <c r="G415" s="38"/>
+      <c r="G415" s="29"/>
     </row>
     <row r="416" spans="7:7">
-      <c r="G416" s="38"/>
+      <c r="G416" s="29"/>
     </row>
     <row r="417" spans="7:7">
-      <c r="G417" s="38"/>
+      <c r="G417" s="29"/>
     </row>
     <row r="418" spans="7:7">
-      <c r="G418" s="38"/>
+      <c r="G418" s="29"/>
     </row>
     <row r="419" spans="7:7">
-      <c r="G419" s="38"/>
+      <c r="G419" s="29"/>
     </row>
     <row r="420" spans="7:7">
-      <c r="G420" s="38"/>
+      <c r="G420" s="29"/>
     </row>
     <row r="421" spans="7:7">
-      <c r="G421" s="38"/>
+      <c r="G421" s="29"/>
     </row>
     <row r="422" spans="7:7">
-      <c r="G422" s="38"/>
+      <c r="G422" s="29"/>
     </row>
     <row r="423" spans="7:7">
-      <c r="G423" s="38"/>
+      <c r="G423" s="29"/>
     </row>
     <row r="424" spans="7:7">
-      <c r="G424" s="38"/>
+      <c r="G424" s="29"/>
     </row>
     <row r="425" spans="7:7">
-      <c r="G425" s="38"/>
+      <c r="G425" s="29"/>
     </row>
     <row r="426" spans="7:7">
-      <c r="G426" s="38"/>
+      <c r="G426" s="29"/>
     </row>
     <row r="427" spans="7:7">
-      <c r="G427" s="38"/>
+      <c r="G427" s="29"/>
     </row>
     <row r="428" spans="7:7">
-      <c r="G428" s="38"/>
+      <c r="G428" s="29"/>
     </row>
     <row r="429" spans="7:7">
-      <c r="G429" s="38"/>
+      <c r="G429" s="29"/>
     </row>
     <row r="430" spans="7:7">
-      <c r="G430" s="38"/>
+      <c r="G430" s="29"/>
     </row>
     <row r="431" spans="7:7">
-      <c r="G431" s="38"/>
+      <c r="G431" s="29"/>
     </row>
     <row r="432" spans="7:7">
-      <c r="G432" s="38"/>
+      <c r="G432" s="29"/>
     </row>
     <row r="433" spans="7:7">
-      <c r="G433" s="38"/>
+      <c r="G433" s="29"/>
     </row>
     <row r="434" spans="7:7">
-      <c r="G434" s="38"/>
+      <c r="G434" s="29"/>
     </row>
     <row r="435" spans="7:7">
-      <c r="G435" s="38"/>
+      <c r="G435" s="29"/>
     </row>
     <row r="436" spans="7:7">
-      <c r="G436" s="38"/>
+      <c r="G436" s="29"/>
     </row>
     <row r="437" spans="7:7">
-      <c r="G437" s="38"/>
+      <c r="G437" s="29"/>
     </row>
     <row r="438" spans="7:7">
-      <c r="G438" s="38"/>
+      <c r="G438" s="29"/>
     </row>
     <row r="439" spans="7:7">
-      <c r="G439" s="38"/>
+      <c r="G439" s="29"/>
     </row>
     <row r="440" spans="7:7">
-      <c r="G440" s="38"/>
+      <c r="G440" s="29"/>
     </row>
     <row r="441" spans="7:7">
-      <c r="G441" s="38"/>
+      <c r="G441" s="29"/>
     </row>
     <row r="442" spans="7:7">
-      <c r="G442" s="38"/>
+      <c r="G442" s="29"/>
     </row>
     <row r="443" spans="7:7">
-      <c r="G443" s="38"/>
+      <c r="G443" s="29"/>
     </row>
     <row r="444" spans="7:7">
-      <c r="G444" s="38"/>
+      <c r="G444" s="29"/>
     </row>
     <row r="445" spans="7:7">
-      <c r="G445" s="38"/>
+      <c r="G445" s="29"/>
     </row>
     <row r="446" spans="7:7">
-      <c r="G446" s="38"/>
+      <c r="G446" s="29"/>
     </row>
     <row r="447" spans="7:7">
-      <c r="G447" s="38"/>
+      <c r="G447" s="29"/>
     </row>
     <row r="448" spans="7:7">
-      <c r="G448" s="38"/>
+      <c r="G448" s="29"/>
     </row>
     <row r="449" spans="7:7">
-      <c r="G449" s="38"/>
+      <c r="G449" s="29"/>
     </row>
     <row r="450" spans="7:7">
-      <c r="G450" s="38"/>
+      <c r="G450" s="29"/>
     </row>
     <row r="451" spans="7:7">
-      <c r="G451" s="38"/>
+      <c r="G451" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -10042,7 +10134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H241"/>
   <sheetViews>
@@ -10052,7 +10144,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="39" customWidth="1"/>
     <col min="2" max="2" width="15.3984375" customWidth="1"/>
     <col min="3" max="3" width="15.796875" customWidth="1"/>
     <col min="4" max="4" width="19.69921875" customWidth="1"/>
@@ -10061,48 +10153,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="113" t="s">
         <v>612</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="124" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="128"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
+      <c r="A2" s="113"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="128"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="136"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -10113,7 +10205,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="137"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -10124,7 +10216,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="159" customHeight="1">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="37" t="s">
         <v>613</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -10140,10 +10232,10 @@
       <c r="F6" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="236.25">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="37" t="s">
         <v>614</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -10159,7 +10251,7 @@
       <c r="F7" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G7" s="34"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="15.75">
       <c r="A8" s="2"/>
@@ -10173,7 +10265,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="94.5">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="37" t="s">
         <v>615</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -10191,10 +10283,10 @@
       <c r="F9" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G9" s="34"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="94.5">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="37" t="s">
         <v>616</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -10210,10 +10302,10 @@
       <c r="F10" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G10" s="34"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="94.5">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="37" t="s">
         <v>617</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -10229,19 +10321,19 @@
       <c r="F11" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G11" s="34"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="126">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="B12" s="138" t="s">
+      <c r="B12" s="120" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="122" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -10250,27 +10342,27 @@
       <c r="F12" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G12" s="34"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="110.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="B13" s="139"/>
+      <c r="B13" s="121"/>
       <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="141"/>
+      <c r="D13" s="123"/>
       <c r="E13" s="8" t="s">
         <v>605</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G13" s="34"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="110.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="37" t="s">
         <v>620</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -10285,13 +10377,13 @@
       <c r="E14" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="G14" s="34"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="78.75">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="37" t="s">
         <v>621</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -10307,10 +10399,10 @@
       <c r="F15" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G15" s="34"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="78.75">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="37" t="s">
         <v>622</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -10326,10 +10418,10 @@
       <c r="F16" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:8" ht="78.75">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="37" t="s">
         <v>623</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -10345,7 +10437,7 @@
       <c r="F17" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G17" s="34"/>
+      <c r="G17" s="25"/>
     </row>
     <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="2"/>
@@ -10356,10 +10448,10 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="34"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:8" ht="31.5">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="37" t="s">
         <v>624</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -10375,10 +10467,10 @@
       <c r="F19" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G19" s="34"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:8" ht="47.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="37" t="s">
         <v>625</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -10394,10 +10486,10 @@
       <c r="F20" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G20" s="34"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:8" ht="94.5">
-      <c r="A21" s="46" t="s">
+      <c r="A21" s="37" t="s">
         <v>626</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -10413,10 +10505,10 @@
       <c r="F21" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G21" s="34"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:8" ht="94.5">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="37" t="s">
         <v>627</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -10429,10 +10521,10 @@
         <v>47</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="30" t="s">
         <v>546</v>
       </c>
-      <c r="G22" s="34"/>
+      <c r="G22" s="25"/>
     </row>
     <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="2"/>
@@ -10447,7 +10539,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="110.25">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="37" t="s">
         <v>628</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -10463,10 +10555,10 @@
       <c r="F24" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G24" s="34"/>
+      <c r="G24" s="25"/>
     </row>
     <row r="25" spans="1:8" ht="110.25">
-      <c r="A25" s="46" t="s">
+      <c r="A25" s="37" t="s">
         <v>629</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -10482,670 +10574,670 @@
       <c r="F25" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="G25" s="34"/>
+      <c r="G25" s="25"/>
     </row>
     <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="80"/>
+      <c r="A26" s="71"/>
     </row>
     <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="80"/>
+      <c r="A27" s="71"/>
     </row>
     <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="80"/>
+      <c r="A28" s="71"/>
     </row>
     <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="80"/>
+      <c r="A29" s="71"/>
     </row>
     <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="80"/>
+      <c r="A30" s="71"/>
     </row>
     <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="80"/>
+      <c r="A31" s="71"/>
     </row>
     <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="80"/>
+      <c r="A32" s="71"/>
     </row>
     <row r="33" spans="1:1" ht="15.75">
-      <c r="A33" s="80"/>
+      <c r="A33" s="71"/>
     </row>
     <row r="34" spans="1:1" ht="15.75">
-      <c r="A34" s="80"/>
+      <c r="A34" s="71"/>
     </row>
     <row r="35" spans="1:1" ht="15.75">
-      <c r="A35" s="80"/>
+      <c r="A35" s="71"/>
     </row>
     <row r="36" spans="1:1" ht="15.75">
-      <c r="A36" s="80"/>
+      <c r="A36" s="71"/>
     </row>
     <row r="37" spans="1:1" ht="15.75">
-      <c r="A37" s="80"/>
+      <c r="A37" s="71"/>
     </row>
     <row r="38" spans="1:1" ht="15.75">
-      <c r="A38" s="80"/>
+      <c r="A38" s="71"/>
     </row>
     <row r="39" spans="1:1" ht="15.75">
-      <c r="A39" s="80"/>
+      <c r="A39" s="71"/>
     </row>
     <row r="40" spans="1:1" ht="15.75">
-      <c r="A40" s="80"/>
+      <c r="A40" s="71"/>
     </row>
     <row r="41" spans="1:1" ht="15.75">
-      <c r="A41" s="80"/>
+      <c r="A41" s="71"/>
     </row>
     <row r="42" spans="1:1" ht="15.75">
-      <c r="A42" s="80"/>
+      <c r="A42" s="71"/>
     </row>
     <row r="43" spans="1:1" ht="15.75">
-      <c r="A43" s="80"/>
+      <c r="A43" s="71"/>
     </row>
     <row r="44" spans="1:1" ht="15.75">
-      <c r="A44" s="80"/>
+      <c r="A44" s="71"/>
     </row>
     <row r="45" spans="1:1" ht="15.75">
-      <c r="A45" s="80"/>
+      <c r="A45" s="71"/>
     </row>
     <row r="46" spans="1:1" ht="15.75">
-      <c r="A46" s="80"/>
+      <c r="A46" s="71"/>
     </row>
     <row r="47" spans="1:1" ht="15.75">
-      <c r="A47" s="80"/>
+      <c r="A47" s="71"/>
     </row>
     <row r="48" spans="1:1" ht="15.75">
-      <c r="A48" s="80"/>
+      <c r="A48" s="71"/>
     </row>
     <row r="49" spans="1:1" ht="15.75">
-      <c r="A49" s="80"/>
+      <c r="A49" s="71"/>
     </row>
     <row r="50" spans="1:1" ht="15.75">
-      <c r="A50" s="80"/>
+      <c r="A50" s="71"/>
     </row>
     <row r="51" spans="1:1" ht="15.75">
-      <c r="A51" s="80"/>
+      <c r="A51" s="71"/>
     </row>
     <row r="52" spans="1:1" ht="15.75">
-      <c r="A52" s="80"/>
+      <c r="A52" s="71"/>
     </row>
     <row r="53" spans="1:1" ht="15.75">
-      <c r="A53" s="80"/>
+      <c r="A53" s="71"/>
     </row>
     <row r="54" spans="1:1" ht="15.75">
-      <c r="A54" s="80"/>
+      <c r="A54" s="71"/>
     </row>
     <row r="55" spans="1:1" ht="15.75">
-      <c r="A55" s="80"/>
+      <c r="A55" s="71"/>
     </row>
     <row r="56" spans="1:1" ht="15.75">
-      <c r="A56" s="80"/>
+      <c r="A56" s="71"/>
     </row>
     <row r="57" spans="1:1" ht="15.75">
-      <c r="A57" s="80"/>
+      <c r="A57" s="71"/>
     </row>
     <row r="58" spans="1:1" ht="15.75">
-      <c r="A58" s="80"/>
+      <c r="A58" s="71"/>
     </row>
     <row r="59" spans="1:1" ht="15.75">
-      <c r="A59" s="80"/>
+      <c r="A59" s="71"/>
     </row>
     <row r="60" spans="1:1" ht="15.75">
-      <c r="A60" s="80"/>
+      <c r="A60" s="71"/>
     </row>
     <row r="61" spans="1:1" ht="15.75">
-      <c r="A61" s="80"/>
+      <c r="A61" s="71"/>
     </row>
     <row r="62" spans="1:1" ht="15.75">
-      <c r="A62" s="80"/>
+      <c r="A62" s="71"/>
     </row>
     <row r="63" spans="1:1" ht="15.75">
-      <c r="A63" s="80"/>
+      <c r="A63" s="71"/>
     </row>
     <row r="64" spans="1:1" ht="15.75">
-      <c r="A64" s="80"/>
+      <c r="A64" s="71"/>
     </row>
     <row r="65" spans="1:1" ht="15.75">
-      <c r="A65" s="80"/>
+      <c r="A65" s="71"/>
     </row>
     <row r="66" spans="1:1" ht="15.75">
-      <c r="A66" s="80"/>
+      <c r="A66" s="71"/>
     </row>
     <row r="67" spans="1:1" ht="15.75">
-      <c r="A67" s="80"/>
+      <c r="A67" s="71"/>
     </row>
     <row r="68" spans="1:1" ht="15.75">
-      <c r="A68" s="80"/>
+      <c r="A68" s="71"/>
     </row>
     <row r="69" spans="1:1" ht="15.75">
-      <c r="A69" s="80"/>
+      <c r="A69" s="71"/>
     </row>
     <row r="70" spans="1:1" ht="15.75">
-      <c r="A70" s="80"/>
+      <c r="A70" s="71"/>
     </row>
     <row r="71" spans="1:1" ht="15.75">
-      <c r="A71" s="80"/>
+      <c r="A71" s="71"/>
     </row>
     <row r="72" spans="1:1" ht="15.75">
-      <c r="A72" s="80"/>
+      <c r="A72" s="71"/>
     </row>
     <row r="73" spans="1:1" ht="15.75">
-      <c r="A73" s="80"/>
+      <c r="A73" s="71"/>
     </row>
     <row r="74" spans="1:1" ht="15.75">
-      <c r="A74" s="80"/>
+      <c r="A74" s="71"/>
     </row>
     <row r="75" spans="1:1" ht="15.75">
-      <c r="A75" s="80"/>
+      <c r="A75" s="71"/>
     </row>
     <row r="76" spans="1:1" ht="15.75">
-      <c r="A76" s="80"/>
+      <c r="A76" s="71"/>
     </row>
     <row r="77" spans="1:1" ht="15.75">
-      <c r="A77" s="80"/>
+      <c r="A77" s="71"/>
     </row>
     <row r="78" spans="1:1" ht="15.75">
-      <c r="A78" s="80"/>
+      <c r="A78" s="71"/>
     </row>
     <row r="79" spans="1:1" ht="15.75">
-      <c r="A79" s="80"/>
+      <c r="A79" s="71"/>
     </row>
     <row r="80" spans="1:1" ht="15.75">
-      <c r="A80" s="80"/>
+      <c r="A80" s="71"/>
     </row>
     <row r="81" spans="1:1" ht="15.75">
-      <c r="A81" s="80"/>
+      <c r="A81" s="71"/>
     </row>
     <row r="82" spans="1:1" ht="15.75">
-      <c r="A82" s="80"/>
+      <c r="A82" s="71"/>
     </row>
     <row r="83" spans="1:1" ht="15.75">
-      <c r="A83" s="80"/>
+      <c r="A83" s="71"/>
     </row>
     <row r="84" spans="1:1" ht="15.75">
-      <c r="A84" s="80"/>
+      <c r="A84" s="71"/>
     </row>
     <row r="85" spans="1:1" ht="15.75">
-      <c r="A85" s="80"/>
+      <c r="A85" s="71"/>
     </row>
     <row r="86" spans="1:1" ht="15.75">
-      <c r="A86" s="80"/>
+      <c r="A86" s="71"/>
     </row>
     <row r="87" spans="1:1" ht="15.75">
-      <c r="A87" s="80"/>
+      <c r="A87" s="71"/>
     </row>
     <row r="88" spans="1:1" ht="15.75">
-      <c r="A88" s="80"/>
+      <c r="A88" s="71"/>
     </row>
     <row r="89" spans="1:1" ht="15.75">
-      <c r="A89" s="80"/>
+      <c r="A89" s="71"/>
     </row>
     <row r="90" spans="1:1" ht="15.75">
-      <c r="A90" s="80"/>
+      <c r="A90" s="71"/>
     </row>
     <row r="91" spans="1:1" ht="15.75">
-      <c r="A91" s="80"/>
+      <c r="A91" s="71"/>
     </row>
     <row r="92" spans="1:1" ht="15.75">
-      <c r="A92" s="80"/>
+      <c r="A92" s="71"/>
     </row>
     <row r="93" spans="1:1" ht="15.75">
-      <c r="A93" s="80"/>
+      <c r="A93" s="71"/>
     </row>
     <row r="94" spans="1:1" ht="15.75">
-      <c r="A94" s="80"/>
+      <c r="A94" s="71"/>
     </row>
     <row r="95" spans="1:1" ht="15.75">
-      <c r="A95" s="80"/>
+      <c r="A95" s="71"/>
     </row>
     <row r="96" spans="1:1" ht="15.75">
-      <c r="A96" s="80"/>
+      <c r="A96" s="71"/>
     </row>
     <row r="97" spans="1:1" ht="15.75">
-      <c r="A97" s="80"/>
+      <c r="A97" s="71"/>
     </row>
     <row r="98" spans="1:1" ht="15.75">
-      <c r="A98" s="80"/>
+      <c r="A98" s="71"/>
     </row>
     <row r="99" spans="1:1" ht="15.75">
-      <c r="A99" s="80"/>
+      <c r="A99" s="71"/>
     </row>
     <row r="100" spans="1:1" ht="15.75">
-      <c r="A100" s="80"/>
+      <c r="A100" s="71"/>
     </row>
     <row r="101" spans="1:1" ht="15.75">
-      <c r="A101" s="80"/>
+      <c r="A101" s="71"/>
     </row>
     <row r="102" spans="1:1" ht="15.75">
-      <c r="A102" s="80"/>
+      <c r="A102" s="71"/>
     </row>
     <row r="103" spans="1:1" ht="15.75">
-      <c r="A103" s="80"/>
+      <c r="A103" s="71"/>
     </row>
     <row r="104" spans="1:1" ht="15.75">
-      <c r="A104" s="80"/>
+      <c r="A104" s="71"/>
     </row>
     <row r="105" spans="1:1" ht="15.75">
-      <c r="A105" s="80"/>
+      <c r="A105" s="71"/>
     </row>
     <row r="106" spans="1:1" ht="15.75">
-      <c r="A106" s="80"/>
+      <c r="A106" s="71"/>
     </row>
     <row r="107" spans="1:1" ht="15.75">
-      <c r="A107" s="80"/>
+      <c r="A107" s="71"/>
     </row>
     <row r="108" spans="1:1" ht="15.75">
-      <c r="A108" s="80"/>
+      <c r="A108" s="71"/>
     </row>
     <row r="109" spans="1:1" ht="15.75">
-      <c r="A109" s="80"/>
+      <c r="A109" s="71"/>
     </row>
     <row r="110" spans="1:1" ht="15.75">
-      <c r="A110" s="80"/>
+      <c r="A110" s="71"/>
     </row>
     <row r="111" spans="1:1" ht="15.75">
-      <c r="A111" s="80"/>
+      <c r="A111" s="71"/>
     </row>
     <row r="112" spans="1:1" ht="15.75">
-      <c r="A112" s="80"/>
+      <c r="A112" s="71"/>
     </row>
     <row r="113" spans="1:1" ht="15.75">
-      <c r="A113" s="80"/>
+      <c r="A113" s="71"/>
     </row>
     <row r="114" spans="1:1" ht="15.75">
-      <c r="A114" s="80"/>
+      <c r="A114" s="71"/>
     </row>
     <row r="115" spans="1:1" ht="15.75">
-      <c r="A115" s="80"/>
+      <c r="A115" s="71"/>
     </row>
     <row r="116" spans="1:1" ht="15.75">
-      <c r="A116" s="80"/>
+      <c r="A116" s="71"/>
     </row>
     <row r="117" spans="1:1" ht="15.75">
-      <c r="A117" s="80"/>
+      <c r="A117" s="71"/>
     </row>
     <row r="118" spans="1:1" ht="15.75">
-      <c r="A118" s="80"/>
+      <c r="A118" s="71"/>
     </row>
     <row r="119" spans="1:1" ht="15.75">
-      <c r="A119" s="80"/>
+      <c r="A119" s="71"/>
     </row>
     <row r="120" spans="1:1" ht="15.75">
-      <c r="A120" s="80"/>
+      <c r="A120" s="71"/>
     </row>
     <row r="121" spans="1:1" ht="15.75">
-      <c r="A121" s="80"/>
+      <c r="A121" s="71"/>
     </row>
     <row r="122" spans="1:1" ht="15.75">
-      <c r="A122" s="80"/>
+      <c r="A122" s="71"/>
     </row>
     <row r="123" spans="1:1" ht="15.75">
-      <c r="A123" s="80"/>
+      <c r="A123" s="71"/>
     </row>
     <row r="124" spans="1:1" ht="15.75">
-      <c r="A124" s="80"/>
+      <c r="A124" s="71"/>
     </row>
     <row r="125" spans="1:1" ht="15.75">
-      <c r="A125" s="80"/>
+      <c r="A125" s="71"/>
     </row>
     <row r="126" spans="1:1" ht="15.75">
-      <c r="A126" s="80"/>
+      <c r="A126" s="71"/>
     </row>
     <row r="127" spans="1:1" ht="15.75">
-      <c r="A127" s="80"/>
+      <c r="A127" s="71"/>
     </row>
     <row r="128" spans="1:1" ht="15.75">
-      <c r="A128" s="80"/>
+      <c r="A128" s="71"/>
     </row>
     <row r="129" spans="1:1" ht="15.75">
-      <c r="A129" s="80"/>
+      <c r="A129" s="71"/>
     </row>
     <row r="130" spans="1:1" ht="15.75">
-      <c r="A130" s="80"/>
+      <c r="A130" s="71"/>
     </row>
     <row r="131" spans="1:1" ht="15.75">
-      <c r="A131" s="80"/>
+      <c r="A131" s="71"/>
     </row>
     <row r="132" spans="1:1" ht="15.75">
-      <c r="A132" s="80"/>
+      <c r="A132" s="71"/>
     </row>
     <row r="133" spans="1:1" ht="15.75">
-      <c r="A133" s="80"/>
+      <c r="A133" s="71"/>
     </row>
     <row r="134" spans="1:1" ht="15.75">
-      <c r="A134" s="80"/>
+      <c r="A134" s="71"/>
     </row>
     <row r="135" spans="1:1" ht="15.75">
-      <c r="A135" s="80"/>
+      <c r="A135" s="71"/>
     </row>
     <row r="136" spans="1:1" ht="15.75">
-      <c r="A136" s="80"/>
+      <c r="A136" s="71"/>
     </row>
     <row r="137" spans="1:1" ht="15.75">
-      <c r="A137" s="80"/>
+      <c r="A137" s="71"/>
     </row>
     <row r="138" spans="1:1" ht="15.75">
-      <c r="A138" s="80"/>
+      <c r="A138" s="71"/>
     </row>
     <row r="139" spans="1:1" ht="15.75">
-      <c r="A139" s="80"/>
+      <c r="A139" s="71"/>
     </row>
     <row r="140" spans="1:1" ht="15.75">
-      <c r="A140" s="80"/>
+      <c r="A140" s="71"/>
     </row>
     <row r="141" spans="1:1" ht="15.75">
-      <c r="A141" s="80"/>
+      <c r="A141" s="71"/>
     </row>
     <row r="142" spans="1:1" ht="15.75">
-      <c r="A142" s="80"/>
+      <c r="A142" s="71"/>
     </row>
     <row r="143" spans="1:1" ht="15.75">
-      <c r="A143" s="80"/>
+      <c r="A143" s="71"/>
     </row>
     <row r="144" spans="1:1" ht="15.75">
-      <c r="A144" s="80"/>
+      <c r="A144" s="71"/>
     </row>
     <row r="145" spans="1:1" ht="15.75">
-      <c r="A145" s="80"/>
+      <c r="A145" s="71"/>
     </row>
     <row r="146" spans="1:1" ht="15.75">
-      <c r="A146" s="80"/>
+      <c r="A146" s="71"/>
     </row>
     <row r="147" spans="1:1" ht="15.75">
-      <c r="A147" s="80"/>
+      <c r="A147" s="71"/>
     </row>
     <row r="148" spans="1:1" ht="15.75">
-      <c r="A148" s="80"/>
+      <c r="A148" s="71"/>
     </row>
     <row r="149" spans="1:1" ht="15.75">
-      <c r="A149" s="80"/>
+      <c r="A149" s="71"/>
     </row>
     <row r="150" spans="1:1" ht="15.75">
-      <c r="A150" s="80"/>
+      <c r="A150" s="71"/>
     </row>
     <row r="151" spans="1:1" ht="15.75">
-      <c r="A151" s="80"/>
+      <c r="A151" s="71"/>
     </row>
     <row r="152" spans="1:1" ht="15.75">
-      <c r="A152" s="80"/>
+      <c r="A152" s="71"/>
     </row>
     <row r="153" spans="1:1" ht="15.75">
-      <c r="A153" s="80"/>
+      <c r="A153" s="71"/>
     </row>
     <row r="154" spans="1:1" ht="15.75">
-      <c r="A154" s="80"/>
+      <c r="A154" s="71"/>
     </row>
     <row r="155" spans="1:1" ht="15.75">
-      <c r="A155" s="80"/>
+      <c r="A155" s="71"/>
     </row>
     <row r="156" spans="1:1" ht="15.75">
-      <c r="A156" s="80"/>
+      <c r="A156" s="71"/>
     </row>
     <row r="157" spans="1:1" ht="15.75">
-      <c r="A157" s="80"/>
+      <c r="A157" s="71"/>
     </row>
     <row r="158" spans="1:1" ht="15.75">
-      <c r="A158" s="80"/>
+      <c r="A158" s="71"/>
     </row>
     <row r="159" spans="1:1" ht="15.75">
-      <c r="A159" s="80"/>
+      <c r="A159" s="71"/>
     </row>
     <row r="160" spans="1:1" ht="15.75">
-      <c r="A160" s="80"/>
+      <c r="A160" s="71"/>
     </row>
     <row r="161" spans="1:1" ht="15.75">
-      <c r="A161" s="80"/>
+      <c r="A161" s="71"/>
     </row>
     <row r="162" spans="1:1" ht="15.75">
-      <c r="A162" s="80"/>
+      <c r="A162" s="71"/>
     </row>
     <row r="163" spans="1:1" ht="15.75">
-      <c r="A163" s="80"/>
+      <c r="A163" s="71"/>
     </row>
     <row r="164" spans="1:1" ht="15.75">
-      <c r="A164" s="80"/>
+      <c r="A164" s="71"/>
     </row>
     <row r="165" spans="1:1" ht="15.75">
-      <c r="A165" s="80"/>
+      <c r="A165" s="71"/>
     </row>
     <row r="166" spans="1:1" ht="15.75">
-      <c r="A166" s="80"/>
+      <c r="A166" s="71"/>
     </row>
     <row r="167" spans="1:1" ht="15.75">
-      <c r="A167" s="80"/>
+      <c r="A167" s="71"/>
     </row>
     <row r="168" spans="1:1" ht="15.75">
-      <c r="A168" s="80"/>
+      <c r="A168" s="71"/>
     </row>
     <row r="169" spans="1:1" ht="15.75">
-      <c r="A169" s="80"/>
+      <c r="A169" s="71"/>
     </row>
     <row r="170" spans="1:1" ht="15.75">
-      <c r="A170" s="80"/>
+      <c r="A170" s="71"/>
     </row>
     <row r="171" spans="1:1" ht="15.75">
-      <c r="A171" s="80"/>
+      <c r="A171" s="71"/>
     </row>
     <row r="172" spans="1:1" ht="15.75">
-      <c r="A172" s="80"/>
+      <c r="A172" s="71"/>
     </row>
     <row r="173" spans="1:1" ht="15.75">
-      <c r="A173" s="80"/>
+      <c r="A173" s="71"/>
     </row>
     <row r="174" spans="1:1" ht="15.75">
-      <c r="A174" s="80"/>
+      <c r="A174" s="71"/>
     </row>
     <row r="175" spans="1:1" ht="15.75">
-      <c r="A175" s="80"/>
+      <c r="A175" s="71"/>
     </row>
     <row r="176" spans="1:1" ht="15.75">
-      <c r="A176" s="80"/>
+      <c r="A176" s="71"/>
     </row>
     <row r="177" spans="1:1" ht="15.75">
-      <c r="A177" s="80"/>
+      <c r="A177" s="71"/>
     </row>
     <row r="178" spans="1:1" ht="15.75">
-      <c r="A178" s="80"/>
+      <c r="A178" s="71"/>
     </row>
     <row r="179" spans="1:1" ht="15.75">
-      <c r="A179" s="80"/>
+      <c r="A179" s="71"/>
     </row>
     <row r="180" spans="1:1" ht="15.75">
-      <c r="A180" s="80"/>
+      <c r="A180" s="71"/>
     </row>
     <row r="181" spans="1:1" ht="15.75">
-      <c r="A181" s="80"/>
+      <c r="A181" s="71"/>
     </row>
     <row r="182" spans="1:1" ht="15.75">
-      <c r="A182" s="80"/>
+      <c r="A182" s="71"/>
     </row>
     <row r="183" spans="1:1" ht="15.75">
-      <c r="A183" s="80"/>
+      <c r="A183" s="71"/>
     </row>
     <row r="184" spans="1:1" ht="15.75">
-      <c r="A184" s="80"/>
+      <c r="A184" s="71"/>
     </row>
     <row r="185" spans="1:1" ht="15.75">
-      <c r="A185" s="80"/>
+      <c r="A185" s="71"/>
     </row>
     <row r="186" spans="1:1" ht="15.75">
-      <c r="A186" s="80"/>
+      <c r="A186" s="71"/>
     </row>
     <row r="187" spans="1:1" ht="15.75">
-      <c r="A187" s="80"/>
+      <c r="A187" s="71"/>
     </row>
     <row r="188" spans="1:1" ht="15.75">
-      <c r="A188" s="80"/>
+      <c r="A188" s="71"/>
     </row>
     <row r="189" spans="1:1" ht="15.75">
-      <c r="A189" s="80"/>
+      <c r="A189" s="71"/>
     </row>
     <row r="190" spans="1:1" ht="15.75">
-      <c r="A190" s="80"/>
+      <c r="A190" s="71"/>
     </row>
     <row r="191" spans="1:1" ht="15.75">
-      <c r="A191" s="80"/>
+      <c r="A191" s="71"/>
     </row>
     <row r="192" spans="1:1" ht="15.75">
-      <c r="A192" s="80"/>
+      <c r="A192" s="71"/>
     </row>
     <row r="193" spans="1:1" ht="15.75">
-      <c r="A193" s="80"/>
+      <c r="A193" s="71"/>
     </row>
     <row r="194" spans="1:1" ht="15.75">
-      <c r="A194" s="80"/>
+      <c r="A194" s="71"/>
     </row>
     <row r="195" spans="1:1" ht="15.75">
-      <c r="A195" s="80"/>
+      <c r="A195" s="71"/>
     </row>
     <row r="196" spans="1:1" ht="15.75">
-      <c r="A196" s="80"/>
+      <c r="A196" s="71"/>
     </row>
     <row r="197" spans="1:1" ht="15.75">
-      <c r="A197" s="80"/>
+      <c r="A197" s="71"/>
     </row>
     <row r="198" spans="1:1" ht="15.75">
-      <c r="A198" s="80"/>
+      <c r="A198" s="71"/>
     </row>
     <row r="199" spans="1:1" ht="15.75">
-      <c r="A199" s="80"/>
+      <c r="A199" s="71"/>
     </row>
     <row r="200" spans="1:1" ht="15.75">
-      <c r="A200" s="80"/>
+      <c r="A200" s="71"/>
     </row>
     <row r="201" spans="1:1" ht="15.75">
-      <c r="A201" s="80"/>
+      <c r="A201" s="71"/>
     </row>
     <row r="202" spans="1:1" ht="15.75">
-      <c r="A202" s="80"/>
+      <c r="A202" s="71"/>
     </row>
     <row r="203" spans="1:1" ht="15.75">
-      <c r="A203" s="80"/>
+      <c r="A203" s="71"/>
     </row>
     <row r="204" spans="1:1" ht="15.75">
-      <c r="A204" s="80"/>
+      <c r="A204" s="71"/>
     </row>
     <row r="205" spans="1:1" ht="15.75">
-      <c r="A205" s="80"/>
+      <c r="A205" s="71"/>
     </row>
     <row r="206" spans="1:1" ht="15.75">
-      <c r="A206" s="80"/>
+      <c r="A206" s="71"/>
     </row>
     <row r="207" spans="1:1" ht="15.75">
-      <c r="A207" s="80"/>
+      <c r="A207" s="71"/>
     </row>
     <row r="208" spans="1:1" ht="15.75">
-      <c r="A208" s="80"/>
+      <c r="A208" s="71"/>
     </row>
     <row r="209" spans="1:1" ht="15.75">
-      <c r="A209" s="80"/>
+      <c r="A209" s="71"/>
     </row>
     <row r="210" spans="1:1" ht="15.75">
-      <c r="A210" s="80"/>
+      <c r="A210" s="71"/>
     </row>
     <row r="211" spans="1:1" ht="15.75">
-      <c r="A211" s="80"/>
+      <c r="A211" s="71"/>
     </row>
     <row r="212" spans="1:1" ht="15.75">
-      <c r="A212" s="80"/>
+      <c r="A212" s="71"/>
     </row>
     <row r="213" spans="1:1" ht="15.75">
-      <c r="A213" s="80"/>
+      <c r="A213" s="71"/>
     </row>
     <row r="214" spans="1:1" ht="15.75">
-      <c r="A214" s="80"/>
+      <c r="A214" s="71"/>
     </row>
     <row r="215" spans="1:1" ht="15.75">
-      <c r="A215" s="80"/>
+      <c r="A215" s="71"/>
     </row>
     <row r="216" spans="1:1" ht="15.75">
-      <c r="A216" s="80"/>
+      <c r="A216" s="71"/>
     </row>
     <row r="217" spans="1:1" ht="15.75">
-      <c r="A217" s="80"/>
+      <c r="A217" s="71"/>
     </row>
     <row r="218" spans="1:1" ht="15.75">
-      <c r="A218" s="80"/>
+      <c r="A218" s="71"/>
     </row>
     <row r="219" spans="1:1" ht="15.75">
-      <c r="A219" s="80"/>
+      <c r="A219" s="71"/>
     </row>
     <row r="220" spans="1:1" ht="15.75">
-      <c r="A220" s="80"/>
+      <c r="A220" s="71"/>
     </row>
     <row r="221" spans="1:1" ht="15.75">
-      <c r="A221" s="80"/>
+      <c r="A221" s="71"/>
     </row>
     <row r="222" spans="1:1" ht="15.75">
-      <c r="A222" s="80"/>
+      <c r="A222" s="71"/>
     </row>
     <row r="223" spans="1:1" ht="15.75">
-      <c r="A223" s="80"/>
+      <c r="A223" s="71"/>
     </row>
     <row r="224" spans="1:1" ht="15.75">
-      <c r="A224" s="80"/>
+      <c r="A224" s="71"/>
     </row>
     <row r="225" spans="1:1" ht="15.75">
-      <c r="A225" s="80"/>
+      <c r="A225" s="71"/>
     </row>
     <row r="226" spans="1:1" ht="15.75">
-      <c r="A226" s="80"/>
+      <c r="A226" s="71"/>
     </row>
     <row r="227" spans="1:1" ht="15.75">
-      <c r="A227" s="80"/>
+      <c r="A227" s="71"/>
     </row>
     <row r="228" spans="1:1" ht="15.75">
-      <c r="A228" s="80"/>
+      <c r="A228" s="71"/>
     </row>
     <row r="229" spans="1:1" ht="15.75">
-      <c r="A229" s="80"/>
+      <c r="A229" s="71"/>
     </row>
     <row r="230" spans="1:1" ht="15.75">
-      <c r="A230" s="80"/>
+      <c r="A230" s="71"/>
     </row>
     <row r="231" spans="1:1" ht="15.75">
-      <c r="A231" s="80"/>
+      <c r="A231" s="71"/>
     </row>
     <row r="232" spans="1:1" ht="15.75">
-      <c r="A232" s="80"/>
+      <c r="A232" s="71"/>
     </row>
     <row r="233" spans="1:1" ht="15.75">
-      <c r="A233" s="80"/>
+      <c r="A233" s="71"/>
     </row>
     <row r="234" spans="1:1" ht="15.75">
-      <c r="A234" s="80"/>
+      <c r="A234" s="71"/>
     </row>
     <row r="235" spans="1:1" ht="15.75">
-      <c r="A235" s="80"/>
+      <c r="A235" s="71"/>
     </row>
     <row r="236" spans="1:1" ht="15.75">
-      <c r="A236" s="80"/>
+      <c r="A236" s="71"/>
     </row>
     <row r="237" spans="1:1" ht="15.75">
-      <c r="A237" s="80"/>
+      <c r="A237" s="71"/>
     </row>
     <row r="238" spans="1:1" ht="15.75">
-      <c r="A238" s="80"/>
+      <c r="A238" s="71"/>
     </row>
     <row r="239" spans="1:1" ht="15.75">
-      <c r="A239" s="80"/>
+      <c r="A239" s="71"/>
     </row>
     <row r="240" spans="1:1" ht="15.75">
-      <c r="A240" s="80"/>
+      <c r="A240" s="71"/>
     </row>
     <row r="241" spans="1:1" ht="15.75">
-      <c r="A241" s="79" t="s">
+      <c r="A241" s="70" t="s">
         <v>803</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="G1:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="G1:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F25">

--- a/TESTCASE/Testcase_web_FreshFood.xlsx
+++ b/TESTCASE/Testcase_web_FreshFood.xlsx
@@ -9,16 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
-    <sheet name="Thêm mới sản phẩm" sheetId="2" r:id="rId3"/>
-    <sheet name="Đăng nhập" sheetId="3" r:id="rId4"/>
+    <sheet name="Thêm mới sản phẩm" sheetId="2" r:id="rId2"/>
+    <sheet name="Đăng nhập" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Thêm mới sản phẩm'!$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Thêm mới sản phẩm'!$F$8</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="818">
   <si>
     <t>20/4</t>
   </si>
@@ -4037,217 +4036,217 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="37" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="41" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4534,7 +4533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -4551,40 +4550,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="19.5" customHeight="1" thickBot="1">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="110" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="105" t="s">
+      <c r="B1" s="111"/>
+      <c r="C1" s="116" t="s">
         <v>531</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="78" t="s">
+      <c r="D1" s="117"/>
+      <c r="E1" s="123" t="s">
         <v>532</v>
       </c>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80" t="s">
+      <c r="F1" s="124"/>
+      <c r="G1" s="125" t="s">
         <v>533</v>
       </c>
-      <c r="H1" s="95" t="s">
+      <c r="H1" s="106" t="s">
         <v>536</v>
       </c>
-      <c r="I1" s="97" t="s">
+      <c r="I1" s="108" t="s">
         <v>537</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="110" t="s">
         <v>538</v>
       </c>
-      <c r="K1" s="100"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
+      <c r="K1" s="111"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="103"/>
+      <c r="Q1" s="103"/>
       <c r="R1" s="72"/>
     </row>
     <row r="2" spans="1:18" ht="81.75" customHeight="1" thickBot="1">
-      <c r="A2" s="103"/>
-      <c r="B2" s="104"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="15" t="s">
         <v>534</v>
       </c>
@@ -4597,22 +4596,22 @@
       <c r="F2" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="G2" s="81"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="102"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="113"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="105"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
       <c r="R2" s="72"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="83"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="22" t="s">
         <v>0</v>
       </c>
@@ -4634,8 +4633,8 @@
       <c r="I3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="119"/>
       <c r="N3" s="72"/>
       <c r="O3" s="72"/>
       <c r="P3" s="72"/>
@@ -4643,7 +4642,7 @@
       <c r="R3" s="72"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="120" t="s">
         <v>541</v>
       </c>
       <c r="B4" s="20" t="s">
@@ -4679,7 +4678,7 @@
       <c r="R4" s="72"/>
     </row>
     <row r="5" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A5" s="76"/>
+      <c r="A5" s="121"/>
       <c r="B5" s="21" t="s">
         <v>542</v>
       </c>
@@ -4699,7 +4698,7 @@
       <c r="R5" s="72"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A6" s="76"/>
+      <c r="A6" s="121"/>
       <c r="B6" s="21" t="s">
         <v>539</v>
       </c>
@@ -4719,7 +4718,7 @@
       <c r="R6" s="72"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A7" s="77"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="21" t="s">
         <v>540</v>
       </c>
@@ -4739,8 +4738,8 @@
       <c r="R7" s="72"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="127"/>
-      <c r="B8" s="127"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
@@ -4752,8 +4751,8 @@
       <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -4765,8 +4764,8 @@
       <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="29"/>
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
@@ -4781,83 +4780,83 @@
       <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1">
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="78" t="s">
         <v>805</v>
       </c>
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="89" t="s">
         <v>806</v>
       </c>
-      <c r="E12" s="142"/>
-      <c r="F12" s="143" t="s">
+      <c r="E12" s="90"/>
+      <c r="F12" s="91" t="s">
         <v>813</v>
       </c>
-      <c r="G12" s="144"/>
+      <c r="G12" s="92"/>
       <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1">
-      <c r="C13" s="137" t="s">
+      <c r="C13" s="93" t="s">
         <v>807</v>
       </c>
-      <c r="D13" s="145" t="s">
+      <c r="D13" s="79" t="s">
         <v>808</v>
       </c>
-      <c r="E13" s="146" t="s">
+      <c r="E13" s="80" t="s">
         <v>809</v>
       </c>
-      <c r="F13" s="147" t="s">
+      <c r="F13" s="96" t="s">
         <v>808</v>
       </c>
-      <c r="G13" s="148"/>
+      <c r="G13" s="97"/>
       <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="C14" s="138"/>
-      <c r="D14" s="132" t="s">
+      <c r="C14" s="94"/>
+      <c r="D14" s="76" t="s">
         <v>810</v>
       </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="127" t="s">
+      <c r="E14" s="100"/>
+      <c r="F14" s="98" t="s">
         <v>540</v>
       </c>
-      <c r="G14" s="128"/>
+      <c r="G14" s="99"/>
       <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="C15" s="138"/>
-      <c r="D15" s="132" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="76" t="s">
         <v>811</v>
       </c>
-      <c r="E15" s="134"/>
-      <c r="F15" s="127" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="98" t="s">
         <v>816</v>
       </c>
-      <c r="G15" s="128"/>
+      <c r="G15" s="99"/>
       <c r="I15" s="29"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="C16" s="138"/>
-      <c r="D16" s="132" t="s">
+      <c r="C16" s="94"/>
+      <c r="D16" s="76" t="s">
         <v>814</v>
       </c>
-      <c r="E16" s="134"/>
-      <c r="F16" s="127" t="s">
+      <c r="E16" s="101"/>
+      <c r="F16" s="98" t="s">
         <v>817</v>
       </c>
-      <c r="G16" s="128"/>
+      <c r="G16" s="99"/>
       <c r="I16" s="29"/>
     </row>
     <row r="17" spans="3:16">
-      <c r="C17" s="138"/>
-      <c r="D17" s="132" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="76" t="s">
         <v>812</v>
       </c>
-      <c r="E17" s="134"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="129"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
       <c r="L17" s="29"/>
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
@@ -4865,17 +4864,17 @@
       <c r="P17" s="29"/>
     </row>
     <row r="18" spans="3:16" ht="15" thickBot="1">
-      <c r="C18" s="139"/>
-      <c r="D18" s="133" t="s">
+      <c r="C18" s="95"/>
+      <c r="D18" s="77" t="s">
         <v>815</v>
       </c>
-      <c r="E18" s="136"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="131"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
       <c r="L18" s="29"/>
       <c r="M18" s="29"/>
       <c r="N18" s="29"/>
@@ -4885,8 +4884,8 @@
     <row r="19" spans="3:16">
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
       <c r="L19" s="29"/>
       <c r="M19" s="29"/>
       <c r="N19" s="29"/>
@@ -4896,20 +4895,20 @@
     <row r="21" spans="3:16" ht="15" customHeight="1"/>
     <row r="25" spans="3:16" ht="15" thickBot="1"/>
     <row r="26" spans="3:16" ht="16.5" thickBot="1">
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="81" t="s">
         <v>608</v>
       </c>
-      <c r="D26" s="92" t="s">
+      <c r="D26" s="83" t="s">
         <v>609</v>
       </c>
-      <c r="E26" s="93"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="90" t="s">
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="81" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="27" spans="3:16" ht="16.5" thickBot="1">
-      <c r="C27" s="91"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="31" t="s">
         <v>547</v>
       </c>
@@ -4919,7 +4918,7 @@
       <c r="F27" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="G27" s="91"/>
+      <c r="G27" s="82"/>
     </row>
     <row r="28" spans="3:16" ht="15.75">
       <c r="C28" s="32" t="s">
@@ -4956,16 +4955,34 @@
       </c>
     </row>
     <row r="30" spans="3:16" ht="16.5" thickBot="1">
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="88"/>
       <c r="G30" s="35" t="s">
         <v>611</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:K2"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="G26:G27"/>
@@ -4978,24 +4995,6 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="E14:E18"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:K2"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5004,120 +5003,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="20.09765625" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" customWidth="1"/>
-    <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1">
-      <c r="B2" s="140" t="s">
-        <v>805</v>
-      </c>
-      <c r="C2" s="141" t="s">
-        <v>806</v>
-      </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="143" t="s">
-        <v>813</v>
-      </c>
-      <c r="F2" s="144"/>
-    </row>
-    <row r="3" spans="2:6" ht="15" thickBot="1">
-      <c r="B3" s="137" t="s">
-        <v>807</v>
-      </c>
-      <c r="C3" s="145" t="s">
-        <v>808</v>
-      </c>
-      <c r="D3" s="146" t="s">
-        <v>809</v>
-      </c>
-      <c r="E3" s="147" t="s">
-        <v>808</v>
-      </c>
-      <c r="F3" s="148"/>
-    </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="138"/>
-      <c r="C4" s="132" t="s">
-        <v>810</v>
-      </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="127" t="s">
-        <v>540</v>
-      </c>
-      <c r="F4" s="128"/>
-    </row>
-    <row r="5" spans="2:6">
-      <c r="B5" s="138"/>
-      <c r="C5" s="132" t="s">
-        <v>811</v>
-      </c>
-      <c r="D5" s="129"/>
-      <c r="E5" s="127" t="s">
-        <v>816</v>
-      </c>
-      <c r="F5" s="128"/>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="138"/>
-      <c r="C6" s="132" t="s">
-        <v>814</v>
-      </c>
-      <c r="D6" s="129"/>
-      <c r="E6" s="127" t="s">
-        <v>817</v>
-      </c>
-      <c r="F6" s="128"/>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7" s="138"/>
-      <c r="C7" s="132" t="s">
-        <v>812</v>
-      </c>
-      <c r="D7" s="129"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="129"/>
-    </row>
-    <row r="8" spans="2:6" ht="15" thickBot="1">
-      <c r="B8" s="139"/>
-      <c r="C8" s="133" t="s">
-        <v>815</v>
-      </c>
-      <c r="D8" s="131"/>
-      <c r="E8" s="130"/>
-      <c r="F8" s="131"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G451"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -5133,65 +5021,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="135" t="s">
         <v>612</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="135" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="113"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="113"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="113"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="107" t="s">
+      <c r="A4" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="108"/>
-      <c r="C4" s="108"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
-      <c r="F4" s="108"/>
-      <c r="G4" s="109"/>
+      <c r="B4" s="130"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="131"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A5" s="110"/>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="112"/>
+      <c r="A5" s="132"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="134"/>
     </row>
     <row r="6" spans="1:7" s="69" customFormat="1" ht="27" customHeight="1">
       <c r="A6" s="40"/>
@@ -10134,7 +10022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H241"/>
   <sheetViews>
@@ -10153,48 +10041,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="135" t="s">
         <v>612</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="124" t="s">
+      <c r="D1" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="124" t="s">
+      <c r="E1" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="124" t="s">
+      <c r="F1" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="142" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="A3" s="135"/>
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
     </row>
     <row r="4" spans="1:7" ht="15.75">
-      <c r="A4" s="125"/>
+      <c r="A4" s="143"/>
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -10205,7 +10093,7 @@
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="15.75">
-      <c r="A5" s="126"/>
+      <c r="A5" s="144"/>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
@@ -10327,13 +10215,13 @@
       <c r="A12" s="37" t="s">
         <v>618</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="145" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="122" t="s">
+      <c r="D12" s="147" t="s">
         <v>22</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -10344,15 +10232,15 @@
       </c>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" ht="110.25">
+    <row r="13" spans="1:7" ht="126">
       <c r="A13" s="37" t="s">
         <v>619</v>
       </c>
-      <c r="B13" s="121"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="123"/>
+      <c r="D13" s="148"/>
       <c r="E13" s="8" t="s">
         <v>605</v>
       </c>
@@ -10382,7 +10270,7 @@
       </c>
       <c r="G14" s="25"/>
     </row>
-    <row r="15" spans="1:7" ht="78.75">
+    <row r="15" spans="1:7" ht="94.5">
       <c r="A15" s="37" t="s">
         <v>621</v>
       </c>
@@ -10557,7 +10445,7 @@
       </c>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" spans="1:8" ht="110.25">
+    <row r="25" spans="1:8" ht="126">
       <c r="A25" s="37" t="s">
         <v>629</v>
       </c>
@@ -11228,16 +11116,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F6:F25">
